--- a/BUNDES_SPREAD.xlsx
+++ b/BUNDES_SPREAD.xlsx
@@ -3405,7 +3405,7 @@
         <v>15.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="BO4" t="n">
         <v>0.0</v>
@@ -4023,7 +4023,7 @@
         <v>0.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="BO7" t="n">
         <v>0.0</v>
@@ -4229,7 +4229,7 @@
         <v>0.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="BO8" t="n">
         <v>0.0</v>
@@ -7937,7 +7937,7 @@
         <v>22.0</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="BO26" t="n">
         <v>0.0</v>
@@ -8555,7 +8555,7 @@
         <v>34.0</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="BO29" t="n">
         <v>1.0</v>
@@ -9585,7 +9585,7 @@
         <v>0.0</v>
       </c>
       <c r="BN34" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="BO34" t="n">
         <v>0.0</v>
@@ -10821,7 +10821,7 @@
         <v>27.0</v>
       </c>
       <c r="BN40" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="BO40" t="n">
         <v>1.0</v>
@@ -11027,7 +11027,7 @@
         <v>24.0</v>
       </c>
       <c r="BN41" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="BO41" t="n">
         <v>0.0</v>
@@ -15353,7 +15353,7 @@
         <v>0.0</v>
       </c>
       <c r="BN62" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="BO62" t="n">
         <v>0.0</v>
@@ -15559,7 +15559,7 @@
         <v>0.0</v>
       </c>
       <c r="BN63" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="BO63" t="n">
         <v>0.0</v>
@@ -16589,7 +16589,7 @@
         <v>0.0</v>
       </c>
       <c r="BN68" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="BO68" t="n">
         <v>0.0</v>
@@ -17413,7 +17413,7 @@
         <v>74.0</v>
       </c>
       <c r="BN72" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="BO72" t="n">
         <v>2.0</v>
@@ -18443,7 +18443,7 @@
         <v>47.0</v>
       </c>
       <c r="BN77" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO77" t="n">
         <v>0.0</v>
@@ -19473,7 +19473,7 @@
         <v>14.0</v>
       </c>
       <c r="BN82" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="BO82" t="n">
         <v>0.0</v>
@@ -20709,7 +20709,7 @@
         <v>29.0</v>
       </c>
       <c r="BN88" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BO88" t="n">
         <v>0.0</v>
@@ -21945,7 +21945,7 @@
         <v>0.0</v>
       </c>
       <c r="BN94" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="BO94" t="n">
         <v>0.0</v>
@@ -22769,7 +22769,7 @@
         <v>74.0</v>
       </c>
       <c r="BN98" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="BO98" t="n">
         <v>0.0</v>
@@ -23181,7 +23181,7 @@
         <v>0.0</v>
       </c>
       <c r="BN100" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="BO100" t="n">
         <v>1.0</v>
@@ -23387,7 +23387,7 @@
         <v>52.0</v>
       </c>
       <c r="BN101" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="BO101" t="n">
         <v>0.0</v>
@@ -23799,7 +23799,7 @@
         <v>0.0</v>
       </c>
       <c r="BN103" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="BO103" t="n">
         <v>0.0</v>
@@ -24623,7 +24623,7 @@
         <v>95.0</v>
       </c>
       <c r="BN107" t="n">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
       <c r="BO107" t="n">
         <v>0.0</v>
@@ -26065,7 +26065,7 @@
         <v>0.0</v>
       </c>
       <c r="BN114" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="BO114" t="n">
         <v>1.0</v>
@@ -29361,7 +29361,7 @@
         <v>0.0</v>
       </c>
       <c r="BN130" t="n">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
       <c r="BO130" t="n">
         <v>0.0</v>
@@ -30391,7 +30391,7 @@
         <v>31.0</v>
       </c>
       <c r="BN135" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="BO135" t="n">
         <v>0.0</v>
@@ -30803,7 +30803,7 @@
         <v>39.0</v>
       </c>
       <c r="BN137" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="BO137" t="n">
         <v>0.0</v>
@@ -31833,7 +31833,7 @@
         <v>39.0</v>
       </c>
       <c r="BN142" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="BO142" t="n">
         <v>1.0</v>
@@ -32039,7 +32039,7 @@
         <v>11.0</v>
       </c>
       <c r="BN143" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="BO143" t="n">
         <v>0.0</v>
@@ -33069,7 +33069,7 @@
         <v>50.0</v>
       </c>
       <c r="BN148" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="BO148" t="n">
         <v>0.0</v>
@@ -33481,7 +33481,7 @@
         <v>41.0</v>
       </c>
       <c r="BN150" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="BO150" t="n">
         <v>0.0</v>
@@ -35129,7 +35129,7 @@
         <v>49.0</v>
       </c>
       <c r="BN158" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="BO158" t="n">
         <v>0.0</v>
@@ -36571,7 +36571,7 @@
         <v>0.0</v>
       </c>
       <c r="BN165" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BO165" t="n">
         <v>1.0</v>
@@ -38013,7 +38013,7 @@
         <v>80.0</v>
       </c>
       <c r="BN172" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="BO172" t="n">
         <v>0.0</v>
@@ -38219,7 +38219,7 @@
         <v>30.0</v>
       </c>
       <c r="BN173" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BO173" t="n">
         <v>0.0</v>
@@ -40073,7 +40073,7 @@
         <v>0.0</v>
       </c>
       <c r="BN182" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="BO182" t="n">
         <v>0.0</v>
@@ -40691,7 +40691,7 @@
         <v>56.0</v>
       </c>
       <c r="BN185" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="BO185" t="n">
         <v>0.0</v>
@@ -44193,7 +44193,7 @@
         <v>0.0</v>
       </c>
       <c r="BN202" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="BO202" t="n">
         <v>0.0</v>
@@ -46047,7 +46047,7 @@
         <v>0.0</v>
       </c>
       <c r="BN211" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="BO211" t="n">
         <v>0.0</v>
@@ -48313,7 +48313,7 @@
         <v>7.0</v>
       </c>
       <c r="BN222" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="BO222" t="n">
         <v>0.0</v>
@@ -49549,7 +49549,7 @@
         <v>0.0</v>
       </c>
       <c r="BN228" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BO228" t="n">
         <v>0.0</v>
@@ -50579,7 +50579,7 @@
         <v>0.0</v>
       </c>
       <c r="BN233" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="BO233" t="n">
         <v>0.0</v>
@@ -50785,7 +50785,7 @@
         <v>0.0</v>
       </c>
       <c r="BN234" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="BO234" t="n">
         <v>0.0</v>
@@ -51403,7 +51403,7 @@
         <v>19.0</v>
       </c>
       <c r="BN237" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="BO237" t="n">
         <v>0.0</v>
@@ -51609,7 +51609,7 @@
         <v>0.0</v>
       </c>
       <c r="BN238" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BO238" t="n">
         <v>0.0</v>
@@ -52433,7 +52433,7 @@
         <v>61.0</v>
       </c>
       <c r="BN242" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="BO242" t="n">
         <v>0.0</v>
@@ -52639,7 +52639,7 @@
         <v>0.0</v>
       </c>
       <c r="BN243" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="BO243" t="n">
         <v>0.0</v>
@@ -53669,7 +53669,7 @@
         <v>0.0</v>
       </c>
       <c r="BN248" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="BO248" t="n">
         <v>0.0</v>
@@ -55111,7 +55111,7 @@
         <v>5.0</v>
       </c>
       <c r="BN255" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="BO255" t="n">
         <v>0.0</v>
@@ -55523,7 +55523,7 @@
         <v>39.0</v>
       </c>
       <c r="BN257" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="BO257" t="n">
         <v>0.0</v>
@@ -56347,7 +56347,7 @@
         <v>4.0</v>
       </c>
       <c r="BN261" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="BO261" t="n">
         <v>0.0</v>
@@ -56965,7 +56965,7 @@
         <v>88.0</v>
       </c>
       <c r="BN264" t="n">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
       <c r="BO264" t="n">
         <v>0.0</v>
@@ -59025,7 +59025,7 @@
         <v>60.0</v>
       </c>
       <c r="BN274" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="BO274" t="n">
         <v>1.0</v>
@@ -60673,7 +60673,7 @@
         <v>10.0</v>
       </c>
       <c r="BN282" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BO282" t="n">
         <v>0.0</v>
@@ -61291,7 +61291,7 @@
         <v>7.0</v>
       </c>
       <c r="BN285" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="BO285" t="n">
         <v>0.0</v>
@@ -61703,7 +61703,7 @@
         <v>95.0</v>
       </c>
       <c r="BN287" t="n">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
       <c r="BO287" t="n">
         <v>0.0</v>
@@ -62939,7 +62939,7 @@
         <v>0.0</v>
       </c>
       <c r="BN293" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="BO293" t="n">
         <v>0.0</v>
@@ -63145,7 +63145,7 @@
         <v>0.0</v>
       </c>
       <c r="BN294" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="BO294" t="n">
         <v>0.0</v>
@@ -63557,7 +63557,7 @@
         <v>0.0</v>
       </c>
       <c r="BN296" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="BO296" t="n">
         <v>0.0</v>
@@ -63763,7 +63763,7 @@
         <v>53.0</v>
       </c>
       <c r="BN297" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="BO297" t="n">
         <v>0.0</v>
@@ -64175,7 +64175,7 @@
         <v>7.0</v>
       </c>
       <c r="BN299" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="BO299" t="n">
         <v>0.0</v>
@@ -64999,7 +64999,7 @@
         <v>82.0</v>
       </c>
       <c r="BN303" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BO303" t="n">
         <v>0.0</v>

--- a/BUNDES_SPREAD.xlsx
+++ b/BUNDES_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="258">
   <si>
     <t>Div</t>
   </si>
@@ -332,6 +332,33 @@
     <t>36</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -431,15 +458,15 @@
     <t>2-3</t>
   </si>
   <si>
+    <t>3-3</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
     <t>3-2</t>
   </si>
   <si>
-    <t>3-3</t>
-  </si>
-  <si>
     <t>4-0</t>
   </si>
   <si>
@@ -470,6 +497,9 @@
     <t>2-4</t>
   </si>
   <si>
+    <t>3-4</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -491,9 +521,6 @@
     <t>5-4</t>
   </si>
   <si>
-    <t>3-4</t>
-  </si>
-  <si>
     <t>11-2</t>
   </si>
   <si>
@@ -539,6 +566,21 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -653,6 +695,33 @@
     <t>St Pauli-RB Leipzig</t>
   </si>
   <si>
+    <t>Dortmund-Bochum</t>
+  </si>
+  <si>
+    <t>Freiburg-St Pauli</t>
+  </si>
+  <si>
+    <t>Mainz-Heidenheim</t>
+  </si>
+  <si>
+    <t>Mgladbach-Union Berlin</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Augsburg</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Stuttgart</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Leverkusen</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Werder Bremen</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -714,6 +783,9 @@
   </si>
   <si>
     <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
   </si>
 </sst>
 </file>
@@ -986,16 +1058,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -1004,7 +1076,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1013,7 +1085,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L2" t="n">
         <v>5.33</v>
@@ -1025,10 +1097,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1076,16 +1148,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AG2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.0</v>
@@ -1094,10 +1166,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AM2" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN2" t="n">
         <v>1.6</v>
@@ -1201,16 +1273,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1219,7 +1291,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1228,7 +1300,7 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L3" t="n">
         <v>2.32</v>
@@ -1240,10 +1312,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q3" t="n">
         <v>10.0</v>
@@ -1291,16 +1363,16 @@
         <v>21.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI3" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1309,10 +1381,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AM3" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN3" t="n">
         <v>1.0</v>
@@ -1416,16 +1488,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
@@ -1434,7 +1506,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1443,7 +1515,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1455,10 +1527,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q4" t="n">
         <v>15.0</v>
@@ -1506,16 +1578,16 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AG4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI4" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1524,10 +1596,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AM4" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN4" t="n">
         <v>2.1</v>
@@ -1631,16 +1703,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1649,7 +1721,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
@@ -1658,7 +1730,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1670,10 +1742,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="n">
         <v>20.0</v>
@@ -1721,16 +1793,16 @@
         <v>22.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AG5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.0</v>
@@ -1739,10 +1811,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AM5" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1846,16 +1918,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -1864,7 +1936,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -1873,7 +1945,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L6" t="n">
         <v>2.08</v>
@@ -1885,10 +1957,10 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q6" t="n">
         <v>15.0</v>
@@ -1936,16 +2008,16 @@
         <v>24.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AG6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
         <v>4.0</v>
@@ -1954,10 +2026,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AM6" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN6" t="n">
         <v>1.2</v>
@@ -2061,16 +2133,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2079,7 +2151,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2088,7 +2160,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -2100,10 +2172,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q7" t="n">
         <v>12.0</v>
@@ -2151,16 +2223,16 @@
         <v>26.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AG7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AH7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2169,10 +2241,10 @@
         <v>1.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AM7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN7" t="n">
         <v>1.3</v>
@@ -2276,16 +2348,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2294,7 +2366,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2303,7 +2375,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L8" t="n">
         <v>1.71</v>
@@ -2315,10 +2387,10 @@
         <v>4.48</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q8" t="n">
         <v>17.0</v>
@@ -2366,16 +2438,16 @@
         <v>9.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AG8" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.0</v>
@@ -2384,10 +2456,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AM8" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN8" t="n">
         <v>1.7</v>
@@ -2491,16 +2563,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2509,7 +2581,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2518,7 +2590,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L9" t="n">
         <v>6.33</v>
@@ -2530,10 +2602,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q9" t="n">
         <v>11.0</v>
@@ -2581,16 +2653,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AG9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ9" t="n">
         <v>5.0</v>
@@ -2599,10 +2671,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AM9" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN9" t="n">
         <v>1.9</v>
@@ -2706,16 +2778,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2724,7 +2796,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -2733,7 +2805,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L10" t="n">
         <v>2.13</v>
@@ -2745,10 +2817,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -2796,16 +2868,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG10" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH10" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI10" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -2814,10 +2886,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AM10" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="AN10" t="n">
         <v>1.2</v>
@@ -2921,16 +2993,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -2939,7 +3011,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -2948,7 +3020,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" t="n">
         <v>1.96</v>
@@ -2960,10 +3032,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q11" t="n">
         <v>10.0</v>
@@ -3011,16 +3083,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG11" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AH11" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI11" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3029,10 +3101,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="AM11" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="AN11" t="n">
         <v>1.1</v>
@@ -3136,16 +3208,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3154,7 +3226,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3163,7 +3235,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L12" t="n">
         <v>2.66</v>
@@ -3175,10 +3247,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q12" t="n">
         <v>16.0</v>
@@ -3226,16 +3298,16 @@
         <v>19.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH12" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI12" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.0</v>
@@ -3244,10 +3316,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AM12" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="AN12" t="n">
         <v>0.7</v>
@@ -3351,16 +3423,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3369,7 +3441,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
@@ -3378,7 +3450,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L13" t="n">
         <v>1.8</v>
@@ -3390,10 +3462,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q13" t="n">
         <v>17.0</v>
@@ -3441,16 +3513,16 @@
         <v>20.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH13" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI13" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -3459,10 +3531,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="AM13" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="AN13" t="n">
         <v>2.4</v>
@@ -3566,16 +3638,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -3584,7 +3656,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3593,7 +3665,7 @@
         <v>2.0</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L14" t="n">
         <v>3.26</v>
@@ -3605,10 +3677,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q14" t="n">
         <v>12.0</v>
@@ -3656,16 +3728,16 @@
         <v>31.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH14" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI14" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.0</v>
@@ -3674,10 +3746,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AM14" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -3781,16 +3853,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
         <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>111</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -3799,7 +3871,7 @@
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -3808,7 +3880,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L15" t="n">
         <v>1.66</v>
@@ -3820,10 +3892,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q15" t="n">
         <v>28.0</v>
@@ -3871,16 +3943,16 @@
         <v>18.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH15" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI15" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.0</v>
@@ -3889,10 +3961,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="AM15" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="AN15" t="n">
         <v>3.8</v>
@@ -3996,16 +4068,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4014,7 +4086,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4023,7 +4095,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L16" t="n">
         <v>4.05</v>
@@ -4035,10 +4107,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4086,16 +4158,16 @@
         <v>27.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AH16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.0</v>
@@ -4104,10 +4176,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="AN16" t="n">
         <v>0.3</v>
@@ -4211,16 +4283,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -4229,7 +4301,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4238,7 +4310,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L17" t="n">
         <v>1.8</v>
@@ -4250,10 +4322,10 @@
         <v>4.1</v>
       </c>
       <c r="O17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q17" t="n">
         <v>27.0</v>
@@ -4301,16 +4373,16 @@
         <v>15.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ17" t="n">
         <v>4.0</v>
@@ -4319,10 +4391,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AN17" t="n">
         <v>2.2</v>
@@ -4426,16 +4498,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -4444,7 +4516,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
@@ -4453,7 +4525,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L18" t="n">
         <v>2.42</v>
@@ -4465,10 +4537,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -4516,16 +4588,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH18" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI18" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -4534,10 +4606,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="AN18" t="n">
         <v>3.1</v>
@@ -4641,16 +4713,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -4659,7 +4731,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4668,7 +4740,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -4680,10 +4752,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -4731,16 +4803,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH19" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI19" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.0</v>
@@ -4749,10 +4821,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="AN19" t="n">
         <v>1.5</v>
@@ -4856,16 +4928,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -4874,7 +4946,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -4883,7 +4955,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -4895,10 +4967,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q20" t="n">
         <v>13.0</v>
@@ -4946,16 +5018,16 @@
         <v>31.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ20" t="n">
         <v>4.0</v>
@@ -4964,10 +5036,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="AN20" t="n">
         <v>2.6</v>
@@ -5071,16 +5143,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5089,7 +5161,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5098,7 +5170,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L21" t="n">
         <v>1.69</v>
@@ -5110,10 +5182,10 @@
         <v>4.9</v>
       </c>
       <c r="O21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q21" t="n">
         <v>27.0</v>
@@ -5161,16 +5233,16 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AG21" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH21" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI21" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ21" t="n">
         <v>3.0</v>
@@ -5179,10 +5251,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="AN21" t="n">
         <v>3.7</v>
@@ -5286,16 +5358,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5304,7 +5376,7 @@
         <v>4.0</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5313,7 +5385,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L22" t="n">
         <v>5.95</v>
@@ -5325,10 +5397,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -5376,16 +5448,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG22" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH22" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI22" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5394,10 +5466,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="n">
         <v>0.9</v>
@@ -5501,16 +5573,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -5519,7 +5591,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -5528,7 +5600,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L23" t="n">
         <v>2.84</v>
@@ -5540,10 +5612,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
@@ -5591,16 +5663,16 @@
         <v>26.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG23" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH23" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI23" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ23" t="n">
         <v>4.0</v>
@@ -5609,10 +5681,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="n">
         <v>1.6</v>
@@ -5716,16 +5788,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -5734,7 +5806,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5743,7 +5815,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -5755,10 +5827,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q24" t="n">
         <v>16.0</v>
@@ -5806,16 +5878,16 @@
         <v>28.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AG24" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AH24" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI24" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -5824,10 +5896,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="n">
         <v>1.3</v>
@@ -5931,16 +6003,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -5949,7 +6021,7 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -5958,7 +6030,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L25" t="n">
         <v>2.72</v>
@@ -5970,10 +6042,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q25" t="n">
         <v>17.0</v>
@@ -6021,16 +6093,16 @@
         <v>25.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG25" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH25" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI25" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -6039,10 +6111,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="n">
         <v>1.5</v>
@@ -6146,16 +6218,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -6164,7 +6236,7 @@
         <v>6.0</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -6173,7 +6245,7 @@
         <v>4.0</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L26" t="n">
         <v>11.8</v>
@@ -6185,10 +6257,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q26" t="n">
         <v>5.0</v>
@@ -6236,16 +6308,16 @@
         <v>23.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AG26" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH26" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI26" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.0</v>
@@ -6254,10 +6326,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="AM26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="n">
         <v>0.3</v>
@@ -6361,16 +6433,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -6379,7 +6451,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -6388,7 +6460,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L27" t="n">
         <v>2.09</v>
@@ -6400,10 +6472,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -6451,16 +6523,16 @@
         <v>22.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AG27" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH27" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI27" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -6469,10 +6541,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="AM27" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="n">
         <v>2.7</v>
@@ -6576,16 +6648,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6594,7 +6666,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -6603,7 +6675,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L28" t="n">
         <v>2.04</v>
@@ -6615,10 +6687,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q28" t="n">
         <v>11.0</v>
@@ -6666,16 +6738,16 @@
         <v>19.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH28" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI28" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="n">
         <v>4.0</v>
@@ -6684,10 +6756,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="AM28" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="AN28" t="n">
         <v>1.1</v>
@@ -6791,16 +6863,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -6809,7 +6881,7 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -6818,7 +6890,7 @@
         <v>2.0</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L29" t="n">
         <v>2.42</v>
@@ -6830,10 +6902,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q29" t="n">
         <v>30.0</v>
@@ -6881,16 +6953,16 @@
         <v>19.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AG29" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH29" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI29" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -6899,10 +6971,10 @@
         <v>2.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AM29" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="AN29" t="n">
         <v>2.4</v>
@@ -7006,16 +7078,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7024,7 +7096,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -7033,7 +7105,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L30" t="n">
         <v>1.99</v>
@@ -7045,10 +7117,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -7096,16 +7168,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG30" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH30" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI30" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -7114,10 +7186,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AM30" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="AN30" t="n">
         <v>0.7</v>
@@ -7221,16 +7293,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7239,7 +7311,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7248,7 +7320,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L31" t="n">
         <v>2.75</v>
@@ -7260,10 +7332,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q31" t="n">
         <v>7.0</v>
@@ -7311,16 +7383,16 @@
         <v>13.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG31" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH31" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI31" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ31" t="n">
         <v>2.0</v>
@@ -7329,10 +7401,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="AM31" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="AN31" t="n">
         <v>0.7</v>
@@ -7436,16 +7508,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -7454,7 +7526,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
@@ -7463,7 +7535,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L32" t="n">
         <v>2.04</v>
@@ -7475,10 +7547,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q32" t="n">
         <v>12.0</v>
@@ -7526,16 +7598,16 @@
         <v>35.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AG32" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH32" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI32" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -7544,10 +7616,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="AM32" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AN32" t="n">
         <v>1.2</v>
@@ -7651,16 +7723,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -7669,7 +7741,7 @@
         <v>5.0</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -7678,7 +7750,7 @@
         <v>2.0</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L33" t="n">
         <v>7.92</v>
@@ -7690,10 +7762,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -7741,16 +7813,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG33" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH33" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI33" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -7759,10 +7831,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="AM33" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="AN33" t="n">
         <v>0.0</v>
@@ -7866,16 +7938,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -7884,7 +7956,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -7893,7 +7965,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L34" t="n">
         <v>1.79</v>
@@ -7905,10 +7977,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -7956,16 +8028,16 @@
         <v>22.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AG34" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH34" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI34" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -7974,10 +8046,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="AM34" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="AN34" t="n">
         <v>2.7</v>
@@ -8081,16 +8153,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F35" t="n">
         <v>4.0</v>
@@ -8099,7 +8171,7 @@
         <v>3.0</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I35" t="n">
         <v>2.0</v>
@@ -8108,7 +8180,7 @@
         <v>3.0</v>
       </c>
       <c r="K35" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -8120,10 +8192,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q35" t="n">
         <v>20.0</v>
@@ -8171,16 +8243,16 @@
         <v>20.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.0</v>
@@ -8189,10 +8261,10 @@
         <v>1.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="AM35" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="AN35" t="n">
         <v>1.9</v>
@@ -8296,16 +8368,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F36" t="n">
         <v>5.0</v>
@@ -8314,7 +8386,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
@@ -8323,7 +8395,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L36" t="n">
         <v>2.32</v>
@@ -8335,10 +8407,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q36" t="n">
         <v>16.0</v>
@@ -8386,16 +8458,16 @@
         <v>16.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AG36" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AH36" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AI36" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AJ36" t="n">
         <v>4.0</v>
@@ -8404,10 +8476,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AM36" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="AN36" t="n">
         <v>3.4</v>
@@ -8511,16 +8583,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -8529,7 +8601,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -8538,7 +8610,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L37" t="n">
         <v>5.19</v>
@@ -8550,10 +8622,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -8601,16 +8673,16 @@
         <v>15.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AG37" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AH37" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AI37" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AJ37" t="n">
         <v>3.0</v>
@@ -8619,10 +8691,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="AM37" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="AN37" t="n">
         <v>1.4</v>
@@ -8719,6 +8791,1941 @@
       </c>
       <c r="BS37" t="n">
         <v>27.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="N38" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>145</v>
+      </c>
+      <c r="P38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="O39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P39" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>139.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O41" t="s">
+        <v>141</v>
+      </c>
+      <c r="P41" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>136</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="O42" t="s">
+        <v>140</v>
+      </c>
+      <c r="P42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O43" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>250</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O44" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>135</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O45" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O46" t="s">
+        <v>148</v>
+      </c>
+      <c r="P46" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>174.0</v>
       </c>
     </row>
   </sheetData>

--- a/BUNDES_SPREAD.xlsx
+++ b/BUNDES_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="305">
   <si>
     <t>Div</t>
   </si>
@@ -359,6 +359,60 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -464,6 +518,9 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>3-0</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -581,6 +638,33 @@
     <t>2-6</t>
   </si>
   <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>0-11</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -722,6 +806,60 @@
     <t>Hoffenheim-Werder Bremen</t>
   </si>
   <si>
+    <t>Augsburg-Mgladbach</t>
+  </si>
+  <si>
+    <t>Bochum-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Leverkusen-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Union Berlin-Dortmund</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Freiburg</t>
+  </si>
+  <si>
+    <t>St Pauli-Mainz</t>
+  </si>
+  <si>
+    <t>Heidenheim-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Stuttgart-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Dortmund-St Pauli</t>
+  </si>
+  <si>
+    <t>Freiburg-Augsburg</t>
+  </si>
+  <si>
+    <t>Hoffenheim-Bochum</t>
+  </si>
+  <si>
+    <t>Leverkusen-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Mainz-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Mgladbach-Heidenheim</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Stuttgart</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Union Berlin</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Werder Bremen</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -786,6 +924,9 @@
   </si>
   <si>
     <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Max Burda</t>
   </si>
 </sst>
 </file>
@@ -1058,16 +1199,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -1076,7 +1217,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1085,7 +1226,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L2" t="n">
         <v>5.33</v>
@@ -1097,10 +1238,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1148,16 +1289,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.0</v>
@@ -1166,10 +1307,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="AM2" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN2" t="n">
         <v>1.6</v>
@@ -1273,16 +1414,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1291,7 +1432,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1300,7 +1441,7 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L3" t="n">
         <v>2.32</v>
@@ -1312,10 +1453,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="n">
         <v>10.0</v>
@@ -1363,16 +1504,16 @@
         <v>21.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG3" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH3" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI3" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1381,10 +1522,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="AM3" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN3" t="n">
         <v>1.0</v>
@@ -1488,16 +1629,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
@@ -1506,7 +1647,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1515,7 +1656,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1527,10 +1668,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="n">
         <v>15.0</v>
@@ -1578,16 +1719,16 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="AG4" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH4" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI4" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1596,10 +1737,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="AM4" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN4" t="n">
         <v>2.1</v>
@@ -1703,16 +1844,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1721,7 +1862,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
@@ -1730,7 +1871,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1742,10 +1883,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q5" t="n">
         <v>20.0</v>
@@ -1793,16 +1934,16 @@
         <v>22.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AG5" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH5" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI5" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.0</v>
@@ -1811,10 +1952,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="AM5" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -1918,16 +2059,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -1936,7 +2077,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -1945,7 +2086,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L6" t="n">
         <v>2.08</v>
@@ -1957,10 +2098,10 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q6" t="n">
         <v>15.0</v>
@@ -2008,16 +2149,16 @@
         <v>24.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="AG6" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH6" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI6" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ6" t="n">
         <v>4.0</v>
@@ -2026,10 +2167,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="AM6" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN6" t="n">
         <v>1.2</v>
@@ -2133,16 +2274,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2151,7 +2292,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2160,7 +2301,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -2172,10 +2313,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q7" t="n">
         <v>12.0</v>
@@ -2223,16 +2364,16 @@
         <v>26.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="AG7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AH7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI7" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2241,10 +2382,10 @@
         <v>1.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AM7" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN7" t="n">
         <v>1.3</v>
@@ -2348,16 +2489,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2366,7 +2507,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2375,7 +2516,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L8" t="n">
         <v>1.71</v>
@@ -2387,10 +2528,10 @@
         <v>4.48</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q8" t="n">
         <v>17.0</v>
@@ -2438,16 +2579,16 @@
         <v>9.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG8" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH8" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI8" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.0</v>
@@ -2456,10 +2597,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="AM8" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN8" t="n">
         <v>1.7</v>
@@ -2563,16 +2704,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2581,7 +2722,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2590,7 +2731,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L9" t="n">
         <v>6.33</v>
@@ -2602,10 +2743,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q9" t="n">
         <v>11.0</v>
@@ -2653,16 +2794,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG9" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH9" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI9" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ9" t="n">
         <v>5.0</v>
@@ -2671,10 +2812,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="AM9" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN9" t="n">
         <v>1.9</v>
@@ -2778,16 +2919,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2796,7 +2937,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -2805,7 +2946,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L10" t="n">
         <v>2.13</v>
@@ -2817,10 +2958,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -2868,16 +3009,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG10" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH10" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI10" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -2886,10 +3027,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="AM10" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="AN10" t="n">
         <v>1.2</v>
@@ -2993,16 +3134,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3011,7 +3152,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -3020,7 +3161,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L11" t="n">
         <v>1.96</v>
@@ -3032,10 +3173,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q11" t="n">
         <v>10.0</v>
@@ -3083,16 +3224,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AG11" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AH11" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI11" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3101,10 +3242,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="AM11" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="AN11" t="n">
         <v>1.1</v>
@@ -3208,16 +3349,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3226,7 +3367,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3235,7 +3376,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L12" t="n">
         <v>2.66</v>
@@ -3247,10 +3388,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q12" t="n">
         <v>16.0</v>
@@ -3298,16 +3439,16 @@
         <v>19.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AG12" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH12" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI12" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.0</v>
@@ -3316,10 +3457,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="AM12" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="AN12" t="n">
         <v>0.7</v>
@@ -3423,16 +3564,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3441,7 +3582,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
@@ -3450,7 +3591,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L13" t="n">
         <v>1.8</v>
@@ -3462,10 +3603,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q13" t="n">
         <v>17.0</v>
@@ -3513,16 +3654,16 @@
         <v>20.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH13" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI13" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -3531,10 +3672,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="AM13" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="AN13" t="n">
         <v>2.4</v>
@@ -3638,16 +3779,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -3656,7 +3797,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3665,7 +3806,7 @@
         <v>2.0</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L14" t="n">
         <v>3.26</v>
@@ -3677,10 +3818,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q14" t="n">
         <v>12.0</v>
@@ -3728,16 +3869,16 @@
         <v>31.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG14" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH14" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI14" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.0</v>
@@ -3746,10 +3887,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="AM14" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -3853,16 +3994,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -3871,7 +4012,7 @@
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -3880,7 +4021,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L15" t="n">
         <v>1.66</v>
@@ -3892,10 +4033,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="n">
         <v>28.0</v>
@@ -3943,16 +4084,16 @@
         <v>18.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH15" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI15" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.0</v>
@@ -3961,10 +4102,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="AM15" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="AN15" t="n">
         <v>3.8</v>
@@ -4068,16 +4209,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4086,7 +4227,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4095,7 +4236,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L16" t="n">
         <v>4.05</v>
@@ -4107,10 +4248,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4158,16 +4299,16 @@
         <v>27.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AH16" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI16" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.0</v>
@@ -4176,10 +4317,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="AM16" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="AN16" t="n">
         <v>0.3</v>
@@ -4283,16 +4424,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -4301,7 +4442,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4310,7 +4451,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L17" t="n">
         <v>1.8</v>
@@ -4322,10 +4463,10 @@
         <v>4.1</v>
       </c>
       <c r="O17" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q17" t="n">
         <v>27.0</v>
@@ -4373,16 +4514,16 @@
         <v>15.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH17" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI17" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ17" t="n">
         <v>4.0</v>
@@ -4391,10 +4532,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="AM17" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="AN17" t="n">
         <v>2.2</v>
@@ -4498,16 +4639,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -4516,7 +4657,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
@@ -4525,7 +4666,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L18" t="n">
         <v>2.42</v>
@@ -4537,10 +4678,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -4588,16 +4729,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH18" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI18" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -4606,10 +4747,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="AM18" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="AN18" t="n">
         <v>3.1</v>
@@ -4713,16 +4854,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -4731,7 +4872,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4740,7 +4881,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -4752,10 +4893,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -4803,16 +4944,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH19" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI19" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.0</v>
@@ -4821,10 +4962,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AM19" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="AN19" t="n">
         <v>1.5</v>
@@ -4928,16 +5069,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -4946,7 +5087,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -4955,7 +5096,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -4967,10 +5108,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q20" t="n">
         <v>13.0</v>
@@ -5018,16 +5159,16 @@
         <v>31.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH20" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI20" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ20" t="n">
         <v>4.0</v>
@@ -5036,10 +5177,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="AM20" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AN20" t="n">
         <v>2.6</v>
@@ -5143,16 +5284,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5161,7 +5302,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5170,7 +5311,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L21" t="n">
         <v>1.69</v>
@@ -5182,10 +5323,10 @@
         <v>4.9</v>
       </c>
       <c r="O21" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q21" t="n">
         <v>27.0</v>
@@ -5233,16 +5374,16 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH21" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI21" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ21" t="n">
         <v>3.0</v>
@@ -5251,10 +5392,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="AN21" t="n">
         <v>3.7</v>
@@ -5358,16 +5499,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5376,7 +5517,7 @@
         <v>4.0</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5385,7 +5526,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L22" t="n">
         <v>5.95</v>
@@ -5397,10 +5538,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -5448,16 +5589,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG22" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH22" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI22" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5466,10 +5607,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="AN22" t="n">
         <v>0.9</v>
@@ -5573,16 +5714,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -5591,7 +5732,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -5600,7 +5741,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L23" t="n">
         <v>2.84</v>
@@ -5612,10 +5753,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
@@ -5663,16 +5804,16 @@
         <v>26.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH23" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI23" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ23" t="n">
         <v>4.0</v>
@@ -5681,10 +5822,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="AN23" t="n">
         <v>1.6</v>
@@ -5788,16 +5929,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -5806,7 +5947,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5815,7 +5956,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -5827,10 +5968,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q24" t="n">
         <v>16.0</v>
@@ -5878,16 +6019,16 @@
         <v>28.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AH24" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI24" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -5896,10 +6037,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="AN24" t="n">
         <v>1.3</v>
@@ -6003,16 +6144,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6021,7 +6162,7 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6030,7 +6171,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L25" t="n">
         <v>2.72</v>
@@ -6042,10 +6183,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q25" t="n">
         <v>17.0</v>
@@ -6093,16 +6234,16 @@
         <v>25.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH25" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI25" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -6111,10 +6252,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="AN25" t="n">
         <v>1.5</v>
@@ -6218,16 +6359,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -6236,7 +6377,7 @@
         <v>6.0</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -6245,7 +6386,7 @@
         <v>4.0</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L26" t="n">
         <v>11.8</v>
@@ -6257,10 +6398,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="Q26" t="n">
         <v>5.0</v>
@@ -6308,16 +6449,16 @@
         <v>23.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH26" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI26" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.0</v>
@@ -6326,10 +6467,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="AN26" t="n">
         <v>0.3</v>
@@ -6433,16 +6574,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -6451,7 +6592,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -6460,7 +6601,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L27" t="n">
         <v>2.09</v>
@@ -6472,10 +6613,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -6523,16 +6664,16 @@
         <v>22.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AG27" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH27" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI27" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -6541,10 +6682,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="AM27" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="n">
         <v>2.7</v>
@@ -6648,16 +6789,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6666,7 +6807,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -6675,7 +6816,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L28" t="n">
         <v>2.04</v>
@@ -6687,10 +6828,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q28" t="n">
         <v>11.0</v>
@@ -6738,16 +6879,16 @@
         <v>19.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH28" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI28" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ28" t="n">
         <v>4.0</v>
@@ -6756,10 +6897,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="AN28" t="n">
         <v>1.1</v>
@@ -6863,16 +7004,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -6881,7 +7022,7 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -6890,7 +7031,7 @@
         <v>2.0</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L29" t="n">
         <v>2.42</v>
@@ -6902,10 +7043,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q29" t="n">
         <v>30.0</v>
@@ -6953,16 +7094,16 @@
         <v>19.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -6971,10 +7112,10 @@
         <v>2.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="AM29" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="n">
         <v>2.4</v>
@@ -7078,16 +7219,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7096,7 +7237,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -7105,7 +7246,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L30" t="n">
         <v>1.99</v>
@@ -7117,10 +7258,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -7168,16 +7309,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG30" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH30" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI30" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -7186,16 +7327,16 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AP30" t="n">
         <v>22.0</v>
@@ -7293,16 +7434,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7311,7 +7452,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7320,7 +7461,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L31" t="n">
         <v>2.75</v>
@@ -7332,10 +7473,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Q31" t="n">
         <v>7.0</v>
@@ -7383,16 +7524,16 @@
         <v>13.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH31" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI31" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ31" t="n">
         <v>2.0</v>
@@ -7401,10 +7542,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="AM31" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="n">
         <v>0.7</v>
@@ -7508,16 +7649,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -7526,7 +7667,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
@@ -7535,7 +7676,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L32" t="n">
         <v>2.04</v>
@@ -7547,10 +7688,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="Q32" t="n">
         <v>12.0</v>
@@ -7598,16 +7739,16 @@
         <v>35.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AG32" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH32" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI32" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -7616,10 +7757,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="n">
         <v>1.2</v>
@@ -7723,16 +7864,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -7741,7 +7882,7 @@
         <v>5.0</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -7750,7 +7891,7 @@
         <v>2.0</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L33" t="n">
         <v>7.92</v>
@@ -7762,10 +7903,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -7813,16 +7954,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AG33" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH33" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI33" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -7831,10 +7972,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="AM33" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="n">
         <v>0.0</v>
@@ -7938,16 +8079,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -7956,7 +8097,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -7965,7 +8106,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L34" t="n">
         <v>1.79</v>
@@ -7977,10 +8118,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -8028,16 +8169,16 @@
         <v>22.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="AG34" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH34" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI34" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -8046,10 +8187,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="AM34" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="n">
         <v>2.7</v>
@@ -8153,16 +8294,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F35" t="n">
         <v>4.0</v>
@@ -8171,7 +8312,7 @@
         <v>3.0</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I35" t="n">
         <v>2.0</v>
@@ -8180,7 +8321,7 @@
         <v>3.0</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -8192,10 +8333,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q35" t="n">
         <v>20.0</v>
@@ -8243,16 +8384,16 @@
         <v>20.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AG35" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH35" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI35" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.0</v>
@@ -8261,10 +8402,10 @@
         <v>1.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="AM35" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="n">
         <v>1.9</v>
@@ -8368,16 +8509,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F36" t="n">
         <v>5.0</v>
@@ -8386,7 +8527,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
@@ -8395,7 +8536,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L36" t="n">
         <v>2.32</v>
@@ -8407,10 +8548,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q36" t="n">
         <v>16.0</v>
@@ -8458,16 +8599,16 @@
         <v>16.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG36" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH36" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI36" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ36" t="n">
         <v>4.0</v>
@@ -8476,10 +8617,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="AM36" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="AN36" t="n">
         <v>3.4</v>
@@ -8583,16 +8724,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -8601,7 +8742,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -8610,7 +8751,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L37" t="n">
         <v>5.19</v>
@@ -8622,10 +8763,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -8673,16 +8814,16 @@
         <v>15.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="AG37" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AH37" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI37" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ37" t="n">
         <v>3.0</v>
@@ -8691,10 +8832,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="AM37" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="AN37" t="n">
         <v>1.4</v>
@@ -8798,16 +8939,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -8816,7 +8957,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -8825,7 +8966,7 @@
         <v>2.0</v>
       </c>
       <c r="K38" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L38" t="n">
         <v>1.24</v>
@@ -8837,10 +8978,10 @@
         <v>11.22</v>
       </c>
       <c r="O38" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="Q38" t="n">
         <v>23.0</v>
@@ -8888,16 +9029,16 @@
         <v>21.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH38" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI38" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ38" t="n">
         <v>2.0</v>
@@ -8906,10 +9047,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="AN38" t="n">
         <v>3.2</v>
@@ -9013,16 +9154,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -9031,7 +9172,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -9040,7 +9181,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L39" t="n">
         <v>1.62</v>
@@ -9052,10 +9193,10 @@
         <v>5.59</v>
       </c>
       <c r="O39" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Q39" t="n">
         <v>6.0</v>
@@ -9103,16 +9244,16 @@
         <v>25.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH39" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI39" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ39" t="n">
         <v>6.0</v>
@@ -9121,10 +9262,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AM39" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="AN39" t="n">
         <v>1.2</v>
@@ -9228,16 +9369,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -9246,7 +9387,7 @@
         <v>2.0</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -9255,7 +9396,7 @@
         <v>1.0</v>
       </c>
       <c r="K40" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="L40" t="n">
         <v>1.86</v>
@@ -9267,10 +9408,10 @@
         <v>4.21</v>
       </c>
       <c r="O40" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Q40" t="n">
         <v>7.0</v>
@@ -9318,16 +9459,16 @@
         <v>20.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="AG40" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH40" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI40" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -9336,10 +9477,10 @@
         <v>2.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="AM40" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="AN40" t="n">
         <v>0.6</v>
@@ -9443,16 +9584,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -9461,7 +9602,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -9470,7 +9611,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L41" t="n">
         <v>2.13</v>
@@ -9482,10 +9623,10 @@
         <v>3.54</v>
       </c>
       <c r="O41" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -9533,16 +9674,16 @@
         <v>22.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AH41" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI41" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ41" t="n">
         <v>4.0</v>
@@ -9551,10 +9692,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="AN41" t="n">
         <v>0.9</v>
@@ -9658,16 +9799,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F42" t="n">
         <v>4.0</v>
@@ -9676,7 +9817,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="I42" t="n">
         <v>2.0</v>
@@ -9685,7 +9826,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L42" t="n">
         <v>1.4</v>
@@ -9697,10 +9838,10 @@
         <v>7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -9748,16 +9889,16 @@
         <v>22.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="AG42" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH42" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI42" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ42" t="n">
         <v>3.0</v>
@@ -9766,10 +9907,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="AM42" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="AN42" t="n">
         <v>3.0</v>
@@ -9873,16 +10014,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -9891,7 +10032,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -9900,7 +10041,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L43" t="n">
         <v>3.35</v>
@@ -9912,10 +10053,10 @@
         <v>2.09</v>
       </c>
       <c r="O43" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q43" t="n">
         <v>5.0</v>
@@ -9963,16 +10104,16 @@
         <v>30.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AG43" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH43" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI43" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ43" t="n">
         <v>7.0</v>
@@ -9981,10 +10122,10 @@
         <v>1.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="AM43" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="AN43" t="n">
         <v>1.1</v>
@@ -10088,16 +10229,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F44" t="n">
         <v>1.0</v>
@@ -10106,7 +10247,7 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -10115,7 +10256,7 @@
         <v>1.0</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L44" t="n">
         <v>1.74</v>
@@ -10127,10 +10268,10 @@
         <v>4.36</v>
       </c>
       <c r="O44" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="Q44" t="n">
         <v>18.0</v>
@@ -10178,16 +10319,16 @@
         <v>26.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AG44" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH44" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AI44" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AJ44" t="n">
         <v>4.0</v>
@@ -10196,10 +10337,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="AM44" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="AN44" t="n">
         <v>1.4</v>
@@ -10303,16 +10444,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -10321,7 +10462,7 @@
         <v>4.0</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -10330,7 +10471,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L45" t="n">
         <v>4.5</v>
@@ -10342,10 +10483,10 @@
         <v>1.73</v>
       </c>
       <c r="O45" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q45" t="n">
         <v>10.0</v>
@@ -10393,16 +10534,16 @@
         <v>25.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="AG45" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH45" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI45" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ45" t="n">
         <v>4.0</v>
@@ -10411,10 +10552,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AM45" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="AN45" t="n">
         <v>1.1</v>
@@ -10518,16 +10659,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -10536,7 +10677,7 @@
         <v>4.0</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
@@ -10545,7 +10686,7 @@
         <v>3.0</v>
       </c>
       <c r="K46" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L46" t="n">
         <v>2.4</v>
@@ -10557,10 +10698,10 @@
         <v>2.84</v>
       </c>
       <c r="O46" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q46" t="n">
         <v>10.0</v>
@@ -10608,16 +10749,16 @@
         <v>31.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="AG46" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AH46" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AI46" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="AJ46" t="n">
         <v>6.0</v>
@@ -10626,10 +10767,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM46" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="AN46" t="n">
         <v>1.2</v>
@@ -10726,6 +10867,3876 @@
       </c>
       <c r="BS46" t="n">
         <v>174.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>45569.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>154</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O47" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O48" t="s">
+        <v>155</v>
+      </c>
+      <c r="P48" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>154</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M49" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="N49" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="O49" t="s">
+        <v>156</v>
+      </c>
+      <c r="P49" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>154</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O50" t="s">
+        <v>158</v>
+      </c>
+      <c r="P50" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>519.0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>153</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O51" t="s">
+        <v>159</v>
+      </c>
+      <c r="P51" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>152</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O52" t="s">
+        <v>155</v>
+      </c>
+      <c r="P52" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>153</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O53" t="s">
+        <v>159</v>
+      </c>
+      <c r="P53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>153</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O54" t="s">
+        <v>167</v>
+      </c>
+      <c r="P54" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>133.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>153</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>152</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>160</v>
+      </c>
+      <c r="P55" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45583.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>154</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="O56" t="s">
+        <v>161</v>
+      </c>
+      <c r="P56" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>154</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>154</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="O57" t="s">
+        <v>168</v>
+      </c>
+      <c r="P57" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>154</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O58" t="s">
+        <v>161</v>
+      </c>
+      <c r="P58" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>154</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="N59" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="O59" t="s">
+        <v>157</v>
+      </c>
+      <c r="P59" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O60" t="s">
+        <v>155</v>
+      </c>
+      <c r="P60" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>153</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O61" t="s">
+        <v>157</v>
+      </c>
+      <c r="P61" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>154</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>153</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="O62" t="s">
+        <v>159</v>
+      </c>
+      <c r="P62" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>152</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>160</v>
+      </c>
+      <c r="P63" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>152</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>153</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O64" t="s">
+        <v>157</v>
+      </c>
+      <c r="P64" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>139.0</v>
       </c>
     </row>
   </sheetData>

--- a/BUNDES_SPREAD.xlsx
+++ b/BUNDES_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="351">
   <si>
     <t>Div</t>
   </si>
@@ -413,6 +413,60 @@
     <t>63</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -521,6 +575,9 @@
     <t>3-0</t>
   </si>
   <si>
+    <t>4-1</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
@@ -557,6 +614,9 @@
     <t>3-4</t>
   </si>
   <si>
+    <t>7-2</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -665,6 +725,27 @@
     <t>4-4</t>
   </si>
   <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -860,6 +941,60 @@
     <t>Wolfsburg-Werder Bremen</t>
   </si>
   <si>
+    <t>Mainz-Mgladbach</t>
+  </si>
+  <si>
+    <t>Augsburg-Dortmund</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Freiburg</t>
+  </si>
+  <si>
+    <t>St Pauli-Wolfsburg</t>
+  </si>
+  <si>
+    <t>Stuttgart-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Leverkusen</t>
+  </si>
+  <si>
+    <t>Bochum-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Union Berlin-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Heidenheim-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Leverkusen-Stuttgart</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Union Berlin</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt-Bochum</t>
+  </si>
+  <si>
+    <t>Hoffenheim-St Pauli</t>
+  </si>
+  <si>
+    <t>Holstein Kiel-Heidenheim</t>
+  </si>
+  <si>
+    <t>Wolfsburg-Augsburg</t>
+  </si>
+  <si>
+    <t>Dortmund-RB Leipzig</t>
+  </si>
+  <si>
+    <t>Freiburg-Mainz</t>
+  </si>
+  <si>
+    <t>Mgladbach-Werder Bremen</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -927,6 +1062,9 @@
   </si>
   <si>
     <t>Max Burda</t>
+  </si>
+  <si>
+    <t>Frank Willenborg</t>
   </si>
 </sst>
 </file>
@@ -1199,16 +1337,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -1217,7 +1355,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1226,7 +1364,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
         <v>5.33</v>
@@ -1238,10 +1376,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1289,16 +1427,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI2" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.0</v>
@@ -1307,10 +1445,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="AM2" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN2" t="n">
         <v>1.6</v>
@@ -1414,16 +1552,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1432,7 +1570,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1441,7 +1579,7 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L3" t="n">
         <v>2.32</v>
@@ -1453,10 +1591,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q3" t="n">
         <v>10.0</v>
@@ -1504,16 +1642,16 @@
         <v>21.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG3" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH3" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI3" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1522,10 +1660,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="AM3" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN3" t="n">
         <v>1.0</v>
@@ -1629,16 +1767,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
@@ -1647,7 +1785,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1656,7 +1794,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1668,10 +1806,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
         <v>15.0</v>
@@ -1719,16 +1857,16 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AG4" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH4" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI4" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1737,10 +1875,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="AM4" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN4" t="n">
         <v>2.1</v>
@@ -1844,16 +1982,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -1862,7 +2000,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
@@ -1871,7 +2009,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1883,10 +2021,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q5" t="n">
         <v>20.0</v>
@@ -1934,16 +2072,16 @@
         <v>22.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AG5" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH5" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI5" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.0</v>
@@ -1952,10 +2090,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AM5" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -2059,16 +2197,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2077,7 +2215,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2086,7 +2224,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L6" t="n">
         <v>2.08</v>
@@ -2098,10 +2236,10 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q6" t="n">
         <v>15.0</v>
@@ -2149,16 +2287,16 @@
         <v>24.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="AG6" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH6" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI6" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ6" t="n">
         <v>4.0</v>
@@ -2167,10 +2305,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="AM6" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN6" t="n">
         <v>1.2</v>
@@ -2274,16 +2412,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2292,7 +2430,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2301,7 +2439,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -2313,10 +2451,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q7" t="n">
         <v>12.0</v>
@@ -2364,16 +2502,16 @@
         <v>26.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="AG7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2382,10 +2520,10 @@
         <v>1.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="AM7" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN7" t="n">
         <v>1.3</v>
@@ -2489,16 +2627,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2507,7 +2645,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2516,7 +2654,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L8" t="n">
         <v>1.71</v>
@@ -2528,10 +2666,10 @@
         <v>4.48</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q8" t="n">
         <v>17.0</v>
@@ -2579,16 +2717,16 @@
         <v>9.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="AG8" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH8" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI8" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.0</v>
@@ -2597,10 +2735,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="AM8" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN8" t="n">
         <v>1.7</v>
@@ -2704,16 +2842,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2722,7 +2860,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2731,7 +2869,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L9" t="n">
         <v>6.33</v>
@@ -2743,10 +2881,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q9" t="n">
         <v>11.0</v>
@@ -2794,16 +2932,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AG9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI9" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ9" t="n">
         <v>5.0</v>
@@ -2812,10 +2950,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="AM9" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN9" t="n">
         <v>1.9</v>
@@ -2919,16 +3057,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -2937,7 +3075,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -2946,7 +3084,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L10" t="n">
         <v>2.13</v>
@@ -2958,10 +3096,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -3009,16 +3147,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG10" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH10" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI10" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -3027,10 +3165,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="AM10" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="AN10" t="n">
         <v>1.2</v>
@@ -3134,16 +3272,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3152,7 +3290,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -3161,7 +3299,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L11" t="n">
         <v>1.96</v>
@@ -3173,10 +3311,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q11" t="n">
         <v>10.0</v>
@@ -3224,16 +3362,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG11" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH11" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI11" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3242,10 +3380,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="AM11" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="AN11" t="n">
         <v>1.1</v>
@@ -3349,16 +3487,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3367,7 +3505,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3376,7 +3514,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L12" t="n">
         <v>2.66</v>
@@ -3388,10 +3526,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="n">
         <v>16.0</v>
@@ -3439,16 +3577,16 @@
         <v>19.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AG12" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH12" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI12" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.0</v>
@@ -3457,10 +3595,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="AM12" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="AN12" t="n">
         <v>0.7</v>
@@ -3564,16 +3702,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3582,7 +3720,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
@@ -3591,7 +3729,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L13" t="n">
         <v>1.8</v>
@@ -3603,10 +3741,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q13" t="n">
         <v>17.0</v>
@@ -3654,16 +3792,16 @@
         <v>20.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AG13" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH13" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI13" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -3672,10 +3810,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="AM13" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="AN13" t="n">
         <v>2.4</v>
@@ -3779,16 +3917,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -3797,7 +3935,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3806,7 +3944,7 @@
         <v>2.0</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L14" t="n">
         <v>3.26</v>
@@ -3818,10 +3956,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q14" t="n">
         <v>12.0</v>
@@ -3869,16 +4007,16 @@
         <v>31.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="AG14" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH14" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI14" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.0</v>
@@ -3887,10 +4025,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="AM14" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -3994,16 +4132,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -4012,7 +4150,7 @@
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -4021,7 +4159,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L15" t="n">
         <v>1.66</v>
@@ -4033,10 +4171,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q15" t="n">
         <v>28.0</v>
@@ -4084,16 +4222,16 @@
         <v>18.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="AG15" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH15" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI15" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.0</v>
@@ -4102,10 +4240,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="AM15" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="AN15" t="n">
         <v>3.8</v>
@@ -4209,16 +4347,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4227,7 +4365,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4236,7 +4374,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L16" t="n">
         <v>4.05</v>
@@ -4248,10 +4386,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4299,16 +4437,16 @@
         <v>27.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AG16" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH16" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI16" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.0</v>
@@ -4317,10 +4455,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="AM16" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="AN16" t="n">
         <v>0.3</v>
@@ -4424,16 +4562,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -4442,7 +4580,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4451,7 +4589,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L17" t="n">
         <v>1.8</v>
@@ -4463,10 +4601,10 @@
         <v>4.1</v>
       </c>
       <c r="O17" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q17" t="n">
         <v>27.0</v>
@@ -4514,16 +4652,16 @@
         <v>15.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH17" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI17" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ17" t="n">
         <v>4.0</v>
@@ -4532,10 +4670,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="AM17" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="AN17" t="n">
         <v>2.2</v>
@@ -4639,16 +4777,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -4657,7 +4795,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
@@ -4666,7 +4804,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L18" t="n">
         <v>2.42</v>
@@ -4678,10 +4816,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -4729,16 +4867,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH18" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI18" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -4747,10 +4885,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="AM18" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="AN18" t="n">
         <v>3.1</v>
@@ -4854,16 +4992,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -4872,7 +5010,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4881,7 +5019,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -4893,10 +5031,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -4944,16 +5082,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH19" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI19" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.0</v>
@@ -4962,10 +5100,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="AM19" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="AN19" t="n">
         <v>1.5</v>
@@ -5069,16 +5207,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5087,7 +5225,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -5096,7 +5234,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -5108,10 +5246,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q20" t="n">
         <v>13.0</v>
@@ -5159,16 +5297,16 @@
         <v>31.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH20" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI20" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ20" t="n">
         <v>4.0</v>
@@ -5177,10 +5315,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="AM20" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="AN20" t="n">
         <v>2.6</v>
@@ -5284,16 +5422,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5302,7 +5440,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5311,7 +5449,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L21" t="n">
         <v>1.69</v>
@@ -5323,10 +5461,10 @@
         <v>4.9</v>
       </c>
       <c r="O21" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q21" t="n">
         <v>27.0</v>
@@ -5374,16 +5512,16 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH21" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI21" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ21" t="n">
         <v>3.0</v>
@@ -5392,10 +5530,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AM21" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="AN21" t="n">
         <v>3.7</v>
@@ -5499,16 +5637,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5517,7 +5655,7 @@
         <v>4.0</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5526,7 +5664,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L22" t="n">
         <v>5.95</v>
@@ -5538,10 +5676,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -5589,16 +5727,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH22" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI22" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5607,10 +5745,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="AM22" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="AN22" t="n">
         <v>0.9</v>
@@ -5714,16 +5852,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -5732,7 +5870,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -5741,7 +5879,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L23" t="n">
         <v>2.84</v>
@@ -5753,10 +5891,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
@@ -5804,16 +5942,16 @@
         <v>26.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH23" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI23" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ23" t="n">
         <v>4.0</v>
@@ -5822,10 +5960,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="AM23" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="AN23" t="n">
         <v>1.6</v>
@@ -5929,16 +6067,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -5947,7 +6085,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5956,7 +6094,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -5968,10 +6106,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q24" t="n">
         <v>16.0</v>
@@ -6019,16 +6157,16 @@
         <v>28.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH24" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI24" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -6037,10 +6175,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AM24" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="AN24" t="n">
         <v>1.3</v>
@@ -6144,16 +6282,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6162,7 +6300,7 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6171,7 +6309,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L25" t="n">
         <v>2.72</v>
@@ -6183,10 +6321,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q25" t="n">
         <v>17.0</v>
@@ -6234,16 +6372,16 @@
         <v>25.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH25" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI25" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -6252,10 +6390,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="AN25" t="n">
         <v>1.5</v>
@@ -6359,16 +6497,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -6377,7 +6515,7 @@
         <v>6.0</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -6386,7 +6524,7 @@
         <v>4.0</v>
       </c>
       <c r="K26" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L26" t="n">
         <v>11.8</v>
@@ -6398,10 +6536,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q26" t="n">
         <v>5.0</v>
@@ -6449,16 +6587,16 @@
         <v>23.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AG26" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH26" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI26" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.0</v>
@@ -6467,10 +6605,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="AN26" t="n">
         <v>0.3</v>
@@ -6574,16 +6712,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -6592,7 +6730,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -6601,7 +6739,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L27" t="n">
         <v>2.09</v>
@@ -6613,10 +6751,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -6664,16 +6802,16 @@
         <v>22.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="AG27" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH27" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI27" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -6682,10 +6820,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="AN27" t="n">
         <v>2.7</v>
@@ -6789,16 +6927,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6807,7 +6945,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -6816,7 +6954,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L28" t="n">
         <v>2.04</v>
@@ -6828,10 +6966,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q28" t="n">
         <v>11.0</v>
@@ -6879,16 +7017,16 @@
         <v>19.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="AG28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ28" t="n">
         <v>4.0</v>
@@ -6897,10 +7035,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="AN28" t="n">
         <v>1.1</v>
@@ -7004,16 +7142,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -7022,7 +7160,7 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -7031,7 +7169,7 @@
         <v>2.0</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L29" t="n">
         <v>2.42</v>
@@ -7043,10 +7181,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q29" t="n">
         <v>30.0</v>
@@ -7094,16 +7232,16 @@
         <v>19.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI29" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -7112,10 +7250,10 @@
         <v>2.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="AN29" t="n">
         <v>2.4</v>
@@ -7219,16 +7357,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7237,7 +7375,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -7246,7 +7384,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L30" t="n">
         <v>1.99</v>
@@ -7258,10 +7396,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -7309,16 +7447,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH30" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI30" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -7327,10 +7465,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="AN30" t="n">
         <v>0.8</v>
@@ -7434,16 +7572,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7452,7 +7590,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7461,7 +7599,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L31" t="n">
         <v>2.75</v>
@@ -7473,10 +7611,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q31" t="n">
         <v>7.0</v>
@@ -7524,16 +7662,16 @@
         <v>13.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AG31" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH31" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI31" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ31" t="n">
         <v>2.0</v>
@@ -7542,10 +7680,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="AN31" t="n">
         <v>0.7</v>
@@ -7649,16 +7787,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -7667,7 +7805,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
@@ -7676,7 +7814,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L32" t="n">
         <v>2.04</v>
@@ -7688,10 +7826,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q32" t="n">
         <v>12.0</v>
@@ -7739,16 +7877,16 @@
         <v>35.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH32" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI32" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -7757,10 +7895,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="AN32" t="n">
         <v>1.2</v>
@@ -7864,16 +8002,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -7882,7 +8020,7 @@
         <v>5.0</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -7891,7 +8029,7 @@
         <v>2.0</v>
       </c>
       <c r="K33" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L33" t="n">
         <v>7.92</v>
@@ -7903,10 +8041,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -7954,16 +8092,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH33" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI33" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -7972,10 +8110,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AM33" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="AN33" t="n">
         <v>0.0</v>
@@ -8079,16 +8217,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -8097,7 +8235,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -8106,7 +8244,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L34" t="n">
         <v>1.79</v>
@@ -8118,10 +8256,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -8169,16 +8307,16 @@
         <v>22.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH34" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI34" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -8187,10 +8325,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="AN34" t="n">
         <v>2.7</v>
@@ -8294,16 +8432,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F35" t="n">
         <v>4.0</v>
@@ -8312,7 +8450,7 @@
         <v>3.0</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I35" t="n">
         <v>2.0</v>
@@ -8321,7 +8459,7 @@
         <v>3.0</v>
       </c>
       <c r="K35" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -8333,10 +8471,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q35" t="n">
         <v>20.0</v>
@@ -8384,16 +8522,16 @@
         <v>20.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH35" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI35" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.0</v>
@@ -8402,10 +8540,10 @@
         <v>1.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="AM35" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="AN35" t="n">
         <v>1.9</v>
@@ -8509,16 +8647,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F36" t="n">
         <v>5.0</v>
@@ -8527,7 +8665,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
@@ -8536,7 +8674,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L36" t="n">
         <v>2.32</v>
@@ -8548,10 +8686,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q36" t="n">
         <v>16.0</v>
@@ -8599,16 +8737,16 @@
         <v>16.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH36" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI36" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ36" t="n">
         <v>4.0</v>
@@ -8617,10 +8755,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="n">
         <v>3.4</v>
@@ -8724,16 +8862,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -8742,7 +8880,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -8751,7 +8889,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L37" t="n">
         <v>5.19</v>
@@ -8763,10 +8901,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -8814,16 +8952,16 @@
         <v>15.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="AG37" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH37" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI37" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ37" t="n">
         <v>3.0</v>
@@ -8832,10 +8970,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="AM37" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="n">
         <v>1.4</v>
@@ -8939,16 +9077,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -8957,7 +9095,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -8966,7 +9104,7 @@
         <v>2.0</v>
       </c>
       <c r="K38" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L38" t="n">
         <v>1.24</v>
@@ -8978,10 +9116,10 @@
         <v>11.22</v>
       </c>
       <c r="O38" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q38" t="n">
         <v>23.0</v>
@@ -9029,16 +9167,16 @@
         <v>21.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG38" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH38" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI38" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ38" t="n">
         <v>2.0</v>
@@ -9047,10 +9185,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="AM38" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="AN38" t="n">
         <v>3.2</v>
@@ -9154,16 +9292,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -9172,7 +9310,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -9181,7 +9319,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L39" t="n">
         <v>1.62</v>
@@ -9193,10 +9331,10 @@
         <v>5.59</v>
       </c>
       <c r="O39" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q39" t="n">
         <v>6.0</v>
@@ -9244,16 +9382,16 @@
         <v>25.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG39" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH39" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI39" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ39" t="n">
         <v>6.0</v>
@@ -9262,10 +9400,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="AM39" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="n">
         <v>1.2</v>
@@ -9369,16 +9507,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -9387,7 +9525,7 @@
         <v>2.0</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -9396,7 +9534,7 @@
         <v>1.0</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L40" t="n">
         <v>1.86</v>
@@ -9408,10 +9546,10 @@
         <v>4.21</v>
       </c>
       <c r="O40" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q40" t="n">
         <v>7.0</v>
@@ -9459,16 +9597,16 @@
         <v>20.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AG40" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH40" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI40" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -9477,10 +9615,10 @@
         <v>2.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="AM40" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="AN40" t="n">
         <v>0.6</v>
@@ -9584,16 +9722,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -9602,7 +9740,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -9611,7 +9749,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L41" t="n">
         <v>2.13</v>
@@ -9623,10 +9761,10 @@
         <v>3.54</v>
       </c>
       <c r="O41" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -9674,16 +9812,16 @@
         <v>22.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AG41" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH41" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI41" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ41" t="n">
         <v>4.0</v>
@@ -9692,10 +9830,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="AM41" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="AN41" t="n">
         <v>0.9</v>
@@ -9799,16 +9937,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F42" t="n">
         <v>4.0</v>
@@ -9817,7 +9955,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I42" t="n">
         <v>2.0</v>
@@ -9826,7 +9964,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L42" t="n">
         <v>1.4</v>
@@ -9838,10 +9976,10 @@
         <v>7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -9889,16 +10027,16 @@
         <v>22.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH42" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI42" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ42" t="n">
         <v>3.0</v>
@@ -9907,10 +10045,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="AM42" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="n">
         <v>3.0</v>
@@ -10014,16 +10152,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -10032,7 +10170,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -10041,7 +10179,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L43" t="n">
         <v>3.35</v>
@@ -10053,10 +10191,10 @@
         <v>2.09</v>
       </c>
       <c r="O43" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q43" t="n">
         <v>5.0</v>
@@ -10104,16 +10242,16 @@
         <v>30.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AG43" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH43" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI43" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ43" t="n">
         <v>7.0</v>
@@ -10122,10 +10260,10 @@
         <v>1.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="AM43" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="n">
         <v>1.1</v>
@@ -10229,16 +10367,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F44" t="n">
         <v>1.0</v>
@@ -10247,7 +10385,7 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -10256,7 +10394,7 @@
         <v>1.0</v>
       </c>
       <c r="K44" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L44" t="n">
         <v>1.74</v>
@@ -10268,10 +10406,10 @@
         <v>4.36</v>
       </c>
       <c r="O44" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q44" t="n">
         <v>18.0</v>
@@ -10319,16 +10457,16 @@
         <v>26.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH44" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI44" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ44" t="n">
         <v>4.0</v>
@@ -10337,10 +10475,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="AM44" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="AN44" t="n">
         <v>1.4</v>
@@ -10444,16 +10582,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -10462,7 +10600,7 @@
         <v>4.0</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -10471,7 +10609,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L45" t="n">
         <v>4.5</v>
@@ -10483,10 +10621,10 @@
         <v>1.73</v>
       </c>
       <c r="O45" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q45" t="n">
         <v>10.0</v>
@@ -10534,16 +10672,16 @@
         <v>25.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH45" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI45" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ45" t="n">
         <v>4.0</v>
@@ -10552,10 +10690,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="AM45" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="n">
         <v>1.1</v>
@@ -10659,16 +10797,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -10677,7 +10815,7 @@
         <v>4.0</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
@@ -10686,7 +10824,7 @@
         <v>3.0</v>
       </c>
       <c r="K46" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L46" t="n">
         <v>2.4</v>
@@ -10698,10 +10836,10 @@
         <v>2.84</v>
       </c>
       <c r="O46" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q46" t="n">
         <v>10.0</v>
@@ -10749,16 +10887,16 @@
         <v>31.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="AG46" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH46" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI46" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ46" t="n">
         <v>6.0</v>
@@ -10767,10 +10905,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="AM46" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="AN46" t="n">
         <v>1.2</v>
@@ -10874,16 +11012,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45569.0</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -10892,7 +11030,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -10901,7 +11039,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L47" t="n">
         <v>2.46</v>
@@ -10913,10 +11051,10 @@
         <v>2.81</v>
       </c>
       <c r="O47" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q47" t="n">
         <v>13.0</v>
@@ -10964,16 +11102,16 @@
         <v>28.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AG47" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH47" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI47" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ47" t="n">
         <v>6.0</v>
@@ -10982,10 +11120,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="AM47" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="AN47" t="n">
         <v>1.3</v>
@@ -11089,16 +11227,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F48" t="n">
         <v>1.0</v>
@@ -11107,7 +11245,7 @@
         <v>3.0</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -11116,7 +11254,7 @@
         <v>2.0</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L48" t="n">
         <v>3.07</v>
@@ -11128,10 +11266,10 @@
         <v>2.25</v>
       </c>
       <c r="O48" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q48" t="n">
         <v>17.0</v>
@@ -11179,16 +11317,16 @@
         <v>23.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="AG48" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH48" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI48" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ48" t="n">
         <v>3.0</v>
@@ -11197,10 +11335,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="AM48" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="AN48" t="n">
         <v>1.7</v>
@@ -11304,16 +11442,16 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -11322,7 +11460,7 @@
         <v>2.0</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I49" t="n">
         <v>2.0</v>
@@ -11331,7 +11469,7 @@
         <v>1.0</v>
       </c>
       <c r="K49" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L49" t="n">
         <v>1.08</v>
@@ -11343,10 +11481,10 @@
         <v>25.93</v>
       </c>
       <c r="O49" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q49" t="n">
         <v>24.0</v>
@@ -11394,16 +11532,16 @@
         <v>14.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="AG49" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH49" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI49" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ49" t="n">
         <v>4.0</v>
@@ -11412,10 +11550,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AM49" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="n">
         <v>2.1</v>
@@ -11519,16 +11657,16 @@
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -11537,7 +11675,7 @@
         <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I50" t="n">
         <v>2.0</v>
@@ -11546,7 +11684,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L50" t="n">
         <v>3.43</v>
@@ -11558,10 +11696,10 @@
         <v>2.18</v>
       </c>
       <c r="O50" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q50" t="n">
         <v>13.0</v>
@@ -11609,16 +11747,16 @@
         <v>32.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AG50" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH50" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI50" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ50" t="n">
         <v>8.0</v>
@@ -11627,10 +11765,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="AM50" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="AN50" t="n">
         <v>1.5</v>
@@ -11734,16 +11872,16 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -11752,7 +11890,7 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -11761,7 +11899,7 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L51" t="n">
         <v>2.67</v>
@@ -11773,10 +11911,10 @@
         <v>2.62</v>
       </c>
       <c r="O51" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q51" t="n">
         <v>11.0</v>
@@ -11824,16 +11962,16 @@
         <v>16.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="AG51" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH51" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI51" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ51" t="n">
         <v>3.0</v>
@@ -11842,10 +11980,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AM51" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="AN51" t="n">
         <v>1.0</v>
@@ -11949,16 +12087,16 @@
         <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -11967,7 +12105,7 @@
         <v>3.0</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -11976,7 +12114,7 @@
         <v>2.0</v>
       </c>
       <c r="K52" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L52" t="n">
         <v>2.46</v>
@@ -11988,10 +12126,10 @@
         <v>2.99</v>
       </c>
       <c r="O52" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q52" t="n">
         <v>17.0</v>
@@ -12039,16 +12177,16 @@
         <v>28.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AG52" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH52" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI52" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ52" t="n">
         <v>3.0</v>
@@ -12057,10 +12195,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AM52" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="AN52" t="n">
         <v>1.0</v>
@@ -12164,16 +12302,16 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -12182,7 +12320,7 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -12191,7 +12329,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L53" t="n">
         <v>4.77</v>
@@ -12203,10 +12341,10 @@
         <v>1.7</v>
       </c>
       <c r="O53" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q53" t="n">
         <v>15.0</v>
@@ -12254,16 +12392,16 @@
         <v>25.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="AG53" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AH53" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI53" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ53" t="n">
         <v>4.0</v>
@@ -12272,10 +12410,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AM53" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="AN53" t="n">
         <v>1.0</v>
@@ -12379,16 +12517,16 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -12397,7 +12535,7 @@
         <v>3.0</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I54" t="n">
         <v>2.0</v>
@@ -12406,7 +12544,7 @@
         <v>2.0</v>
       </c>
       <c r="K54" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L54" t="n">
         <v>5.72</v>
@@ -12418,10 +12556,10 @@
         <v>1.52</v>
       </c>
       <c r="O54" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q54" t="n">
         <v>5.0</v>
@@ -12469,16 +12607,16 @@
         <v>16.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AG54" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH54" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI54" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ54" t="n">
         <v>2.0</v>
@@ -12487,10 +12625,10 @@
         <v>0.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="AM54" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="AN54" t="n">
         <v>1.2</v>
@@ -12594,16 +12732,16 @@
         <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
@@ -12612,7 +12750,7 @@
         <v>1.0</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
@@ -12621,7 +12759,7 @@
         <v>1.0</v>
       </c>
       <c r="K55" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L55" t="n">
         <v>1.3</v>
@@ -12633,10 +12771,10 @@
         <v>8.25</v>
       </c>
       <c r="O55" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q55" t="n">
         <v>18.0</v>
@@ -12684,16 +12822,16 @@
         <v>17.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AG55" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH55" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI55" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ55" t="n">
         <v>5.0</v>
@@ -12702,10 +12840,10 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="AM55" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="AN55" t="n">
         <v>1.9</v>
@@ -12809,16 +12947,16 @@
         <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>45583.0</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F56" t="n">
         <v>2.0</v>
@@ -12827,7 +12965,7 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I56" t="n">
         <v>1.0</v>
@@ -12836,7 +12974,7 @@
         <v>0.0</v>
       </c>
       <c r="K56" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L56" t="n">
         <v>1.31</v>
@@ -12848,10 +12986,10 @@
         <v>10.18</v>
       </c>
       <c r="O56" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q56" t="n">
         <v>20.0</v>
@@ -12899,16 +13037,16 @@
         <v>15.0</v>
       </c>
       <c r="AF56" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AG56" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH56" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI56" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ56" t="n">
         <v>3.0</v>
@@ -12917,10 +13055,10 @@
         <v>0.0</v>
       </c>
       <c r="AL56" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="AM56" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="AN56" t="n">
         <v>2.6</v>
@@ -13024,16 +13162,16 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F57" t="n">
         <v>3.0</v>
@@ -13042,7 +13180,7 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I57" t="n">
         <v>3.0</v>
@@ -13051,7 +13189,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L57" t="n">
         <v>1.74</v>
@@ -13063,10 +13201,10 @@
         <v>4.93</v>
       </c>
       <c r="O57" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q57" t="n">
         <v>15.0</v>
@@ -13114,16 +13252,16 @@
         <v>18.0</v>
       </c>
       <c r="AF57" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AG57" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH57" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI57" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ57" t="n">
         <v>2.0</v>
@@ -13132,10 +13270,10 @@
         <v>0.0</v>
       </c>
       <c r="AL57" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AM57" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="AN57" t="n">
         <v>0.8</v>
@@ -13239,16 +13377,16 @@
         <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F58" t="n">
         <v>3.0</v>
@@ -13257,7 +13395,7 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I58" t="n">
         <v>1.0</v>
@@ -13266,7 +13404,7 @@
         <v>0.0</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L58" t="n">
         <v>1.7</v>
@@ -13278,10 +13416,10 @@
         <v>4.45</v>
       </c>
       <c r="O58" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q58" t="n">
         <v>12.0</v>
@@ -13329,16 +13467,16 @@
         <v>22.0</v>
       </c>
       <c r="AF58" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AG58" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH58" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI58" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ58" t="n">
         <v>2.0</v>
@@ -13347,10 +13485,10 @@
         <v>0.0</v>
       </c>
       <c r="AL58" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="AM58" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="AN58" t="n">
         <v>2.5</v>
@@ -13454,16 +13592,16 @@
         <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F59" t="n">
         <v>2.0</v>
@@ -13472,7 +13610,7 @@
         <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I59" t="n">
         <v>1.0</v>
@@ -13481,7 +13619,7 @@
         <v>1.0</v>
       </c>
       <c r="K59" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L59" t="n">
         <v>1.45</v>
@@ -13493,10 +13631,10 @@
         <v>6.35</v>
       </c>
       <c r="O59" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q59" t="n">
         <v>27.0</v>
@@ -13544,16 +13682,16 @@
         <v>14.0</v>
       </c>
       <c r="AF59" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AG59" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH59" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI59" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ59" t="n">
         <v>3.0</v>
@@ -13562,10 +13700,10 @@
         <v>0.0</v>
       </c>
       <c r="AL59" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AM59" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="AN59" t="n">
         <v>3.8</v>
@@ -13669,16 +13807,16 @@
         <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -13687,7 +13825,7 @@
         <v>2.0</v>
       </c>
       <c r="H60" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -13696,7 +13834,7 @@
         <v>2.0</v>
       </c>
       <c r="K60" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L60" t="n">
         <v>4.27</v>
@@ -13708,10 +13846,10 @@
         <v>1.88</v>
       </c>
       <c r="O60" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q60" t="n">
         <v>16.0</v>
@@ -13759,16 +13897,16 @@
         <v>27.0</v>
       </c>
       <c r="AF60" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AG60" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH60" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI60" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ60" t="n">
         <v>4.0</v>
@@ -13777,10 +13915,10 @@
         <v>0.0</v>
       </c>
       <c r="AL60" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="AM60" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="AN60" t="n">
         <v>0.6</v>
@@ -13884,16 +14022,16 @@
         <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -13902,7 +14040,7 @@
         <v>2.0</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I61" t="n">
         <v>1.0</v>
@@ -13911,7 +14049,7 @@
         <v>1.0</v>
       </c>
       <c r="K61" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L61" t="n">
         <v>1.83</v>
@@ -13923,10 +14061,10 @@
         <v>4.44</v>
       </c>
       <c r="O61" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q61" t="n">
         <v>20.0</v>
@@ -13974,16 +14112,16 @@
         <v>24.0</v>
       </c>
       <c r="AF61" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH61" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI61" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ61" t="n">
         <v>6.0</v>
@@ -13992,10 +14130,10 @@
         <v>0.0</v>
       </c>
       <c r="AL61" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="AM61" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="AN61" t="n">
         <v>3.6</v>
@@ -14099,16 +14237,16 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C62" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F62" t="n">
         <v>4.0</v>
@@ -14117,7 +14255,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
@@ -14126,7 +14264,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L62" t="n">
         <v>1.36</v>
@@ -14138,10 +14276,10 @@
         <v>7.55</v>
       </c>
       <c r="O62" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q62" t="n">
         <v>22.0</v>
@@ -14189,16 +14327,16 @@
         <v>16.0</v>
       </c>
       <c r="AF62" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AG62" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH62" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI62" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ62" t="n">
         <v>2.0</v>
@@ -14207,10 +14345,10 @@
         <v>0.0</v>
       </c>
       <c r="AL62" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="AM62" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="AN62" t="n">
         <v>3.2</v>
@@ -14314,16 +14452,16 @@
         <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C63" t="n" s="2">
         <v>45585.0</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -14332,7 +14470,7 @@
         <v>2.0</v>
       </c>
       <c r="H63" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
@@ -14341,7 +14479,7 @@
         <v>1.0</v>
       </c>
       <c r="K63" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L63" t="n">
         <v>3.48</v>
@@ -14353,10 +14491,10 @@
         <v>2.2</v>
       </c>
       <c r="O63" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P63" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q63" t="n">
         <v>12.0</v>
@@ -14404,16 +14542,16 @@
         <v>19.0</v>
       </c>
       <c r="AF63" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AG63" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH63" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AI63" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AJ63" t="n">
         <v>3.0</v>
@@ -14422,10 +14560,10 @@
         <v>0.0</v>
       </c>
       <c r="AL63" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="AM63" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="AN63" t="n">
         <v>1.3</v>
@@ -14529,16 +14667,16 @@
         <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C64" t="n" s="2">
         <v>45585.0</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F64" t="n">
         <v>2.0</v>
@@ -14547,7 +14685,7 @@
         <v>4.0</v>
       </c>
       <c r="H64" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I64" t="n">
         <v>1.0</v>
@@ -14556,7 +14694,7 @@
         <v>1.0</v>
       </c>
       <c r="K64" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L64" t="n">
         <v>2.09</v>
@@ -14568,10 +14706,10 @@
         <v>3.55</v>
       </c>
       <c r="O64" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q64" t="n">
         <v>14.0</v>
@@ -14619,16 +14757,16 @@
         <v>24.0</v>
       </c>
       <c r="AF64" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AG64" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AH64" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AI64" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AJ64" t="n">
         <v>2.0</v>
@@ -14637,10 +14775,10 @@
         <v>1.0</v>
       </c>
       <c r="AL64" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AM64" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="AN64" t="n">
         <v>1.8</v>
@@ -14737,6 +14875,3876 @@
       </c>
       <c r="BS64" t="n">
         <v>139.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45590.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>171</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O65" t="s">
+        <v>177</v>
+      </c>
+      <c r="P65" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>172</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>171</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O66" t="s">
+        <v>175</v>
+      </c>
+      <c r="P66" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>172</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>170</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O67" t="s">
+        <v>178</v>
+      </c>
+      <c r="P67" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>171</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>171</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O68" t="s">
+        <v>177</v>
+      </c>
+      <c r="P68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>172</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>172</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M69" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="N69" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="O69" t="s">
+        <v>179</v>
+      </c>
+      <c r="P69" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>162.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45591.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>171</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>170</v>
+      </c>
+      <c r="L70" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O70" t="s">
+        <v>178</v>
+      </c>
+      <c r="P70" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45592.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>170</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>170</v>
+      </c>
+      <c r="L71" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="M71" t="n">
+        <v>9.86</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O71" t="s">
+        <v>173</v>
+      </c>
+      <c r="P71" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45592.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>171</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>170</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O72" t="s">
+        <v>178</v>
+      </c>
+      <c r="P72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>342</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45592.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>171</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>171</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O73" t="s">
+        <v>177</v>
+      </c>
+      <c r="P73" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="n" s="2">
+        <v>45597.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>165</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>171</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O74" t="s">
+        <v>177</v>
+      </c>
+      <c r="P74" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>172</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M75" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="N75" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="O75" t="s">
+        <v>176</v>
+      </c>
+      <c r="P75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>172</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="O76" t="s">
+        <v>187</v>
+      </c>
+      <c r="P76" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>171.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>170</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>170</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O77" t="s">
+        <v>178</v>
+      </c>
+      <c r="P77" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>172</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>172</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O78" t="s">
+        <v>179</v>
+      </c>
+      <c r="P78" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>171</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>170</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O79" t="s">
+        <v>178</v>
+      </c>
+      <c r="P79" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" t="n" s="2">
+        <v>45598.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>172</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>171</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O80" t="s">
+        <v>175</v>
+      </c>
+      <c r="P80" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>92.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" t="n" s="2">
+        <v>45599.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>171</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>171</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="O81" t="s">
+        <v>177</v>
+      </c>
+      <c r="P81" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>345</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" t="n" s="2">
+        <v>45599.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>172</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>172</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O82" t="s">
+        <v>186</v>
+      </c>
+      <c r="P82" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>157.0</v>
       </c>
     </row>
   </sheetData>

--- a/BUNDES_SPREAD.xlsx
+++ b/BUNDES_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="372">
   <si>
     <t>Div</t>
   </si>
@@ -467,6 +467,33 @@
     <t>81</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -746,6 +773,15 @@
     <t>8-4</t>
   </si>
   <si>
+    <t>8-0</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -993,6 +1029,33 @@
   </si>
   <si>
     <t>Mgladbach-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Union Berlin-Freiburg</t>
+  </si>
+  <si>
+    <t>Bochum-Leverkusen</t>
+  </si>
+  <si>
+    <t>Mainz-Dortmund</t>
+  </si>
+  <si>
+    <t>St Pauli-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Werder Bremen-Holstein Kiel</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Mgladbach</t>
+  </si>
+  <si>
+    <t>Augsburg-Hoffenheim</t>
+  </si>
+  <si>
+    <t>Stuttgart-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Heidenheim-Wolfsburg</t>
   </si>
   <si>
     <t/>
@@ -1337,16 +1400,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -1355,7 +1418,7 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1364,7 +1427,7 @@
         <v>2.0</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L2" t="n">
         <v>5.33</v>
@@ -1376,10 +1439,10 @@
         <v>1.6</v>
       </c>
       <c r="O2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q2" t="n">
         <v>14.0</v>
@@ -1427,16 +1490,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.0</v>
@@ -1445,10 +1508,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AM2" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN2" t="n">
         <v>1.6</v>
@@ -1552,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -1570,7 +1633,7 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I3" t="n">
         <v>2.0</v>
@@ -1579,7 +1642,7 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L3" t="n">
         <v>2.32</v>
@@ -1591,10 +1654,10 @@
         <v>3.11</v>
       </c>
       <c r="O3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q3" t="n">
         <v>10.0</v>
@@ -1642,16 +1705,16 @@
         <v>21.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ3" t="n">
         <v>4.0</v>
@@ -1660,10 +1723,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AM3" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN3" t="n">
         <v>1.0</v>
@@ -1767,16 +1830,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
@@ -1785,7 +1848,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -1794,7 +1857,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L4" t="n">
         <v>3.5</v>
@@ -1806,10 +1869,10 @@
         <v>2.09</v>
       </c>
       <c r="O4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q4" t="n">
         <v>15.0</v>
@@ -1857,16 +1920,16 @@
         <v>17.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1875,10 +1938,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AM4" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN4" t="n">
         <v>2.1</v>
@@ -1982,16 +2045,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F5" t="n">
         <v>3.0</v>
@@ -2000,7 +2063,7 @@
         <v>2.0</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I5" t="n">
         <v>2.0</v>
@@ -2009,7 +2072,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -2021,10 +2084,10 @@
         <v>5.07</v>
       </c>
       <c r="O5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q5" t="n">
         <v>20.0</v>
@@ -2072,16 +2135,16 @@
         <v>22.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AG5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ5" t="n">
         <v>5.0</v>
@@ -2090,10 +2153,10 @@
         <v>1.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AM5" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN5" t="n">
         <v>3.5</v>
@@ -2197,16 +2260,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -2215,7 +2278,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2224,7 +2287,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L6" t="n">
         <v>2.08</v>
@@ -2236,10 +2299,10 @@
         <v>4.1</v>
       </c>
       <c r="O6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q6" t="n">
         <v>15.0</v>
@@ -2287,16 +2350,16 @@
         <v>24.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AG6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ6" t="n">
         <v>4.0</v>
@@ -2305,10 +2368,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AM6" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN6" t="n">
         <v>1.2</v>
@@ -2412,16 +2475,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -2430,7 +2493,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2439,7 +2502,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -2451,10 +2514,10 @@
         <v>10.65</v>
       </c>
       <c r="O7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q7" t="n">
         <v>12.0</v>
@@ -2502,16 +2565,16 @@
         <v>26.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2520,10 +2583,10 @@
         <v>1.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AM7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN7" t="n">
         <v>1.3</v>
@@ -2627,16 +2690,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
@@ -2645,7 +2708,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2654,7 +2717,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L8" t="n">
         <v>1.71</v>
@@ -2666,10 +2729,10 @@
         <v>4.48</v>
       </c>
       <c r="O8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q8" t="n">
         <v>17.0</v>
@@ -2717,16 +2780,16 @@
         <v>9.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AG8" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH8" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI8" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.0</v>
@@ -2735,10 +2798,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AM8" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN8" t="n">
         <v>1.7</v>
@@ -2842,16 +2905,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F9" t="n">
         <v>2.0</v>
@@ -2860,7 +2923,7 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2869,7 +2932,7 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L9" t="n">
         <v>6.33</v>
@@ -2881,10 +2944,10 @@
         <v>1.47</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q9" t="n">
         <v>11.0</v>
@@ -2932,16 +2995,16 @@
         <v>24.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AG9" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH9" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI9" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ9" t="n">
         <v>5.0</v>
@@ -2950,10 +3013,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AM9" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN9" t="n">
         <v>1.9</v>
@@ -3057,16 +3120,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -3075,7 +3138,7 @@
         <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -3084,7 +3147,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L10" t="n">
         <v>2.13</v>
@@ -3096,10 +3159,10 @@
         <v>3.59</v>
       </c>
       <c r="O10" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q10" t="n">
         <v>11.0</v>
@@ -3147,16 +3210,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.0</v>
@@ -3165,10 +3228,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AM10" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AN10" t="n">
         <v>1.2</v>
@@ -3272,16 +3335,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F11" t="n">
         <v>1.0</v>
@@ -3290,7 +3353,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -3299,7 +3362,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L11" t="n">
         <v>1.96</v>
@@ -3311,10 +3374,10 @@
         <v>4.29</v>
       </c>
       <c r="O11" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q11" t="n">
         <v>10.0</v>
@@ -3362,16 +3425,16 @@
         <v>21.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AG11" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH11" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI11" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ11" t="n">
         <v>4.0</v>
@@ -3380,10 +3443,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AM11" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AN11" t="n">
         <v>1.1</v>
@@ -3487,16 +3550,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3505,7 +3568,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3514,7 +3577,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L12" t="n">
         <v>2.66</v>
@@ -3526,10 +3589,10 @@
         <v>2.57</v>
       </c>
       <c r="O12" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q12" t="n">
         <v>16.0</v>
@@ -3577,16 +3640,16 @@
         <v>19.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AG12" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH12" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI12" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.0</v>
@@ -3595,10 +3658,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AM12" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
         <v>0.7</v>
@@ -3702,16 +3765,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F13" t="n">
         <v>3.0</v>
@@ -3720,7 +3783,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I13" t="n">
         <v>2.0</v>
@@ -3729,7 +3792,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L13" t="n">
         <v>1.8</v>
@@ -3741,10 +3804,10 @@
         <v>4.12</v>
       </c>
       <c r="O13" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q13" t="n">
         <v>17.0</v>
@@ -3792,16 +3855,16 @@
         <v>20.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AG13" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH13" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI13" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -3810,10 +3873,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AM13" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="AN13" t="n">
         <v>2.4</v>
@@ -3917,16 +3980,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -3935,7 +3998,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3944,7 +4007,7 @@
         <v>2.0</v>
       </c>
       <c r="K14" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L14" t="n">
         <v>3.26</v>
@@ -3956,10 +4019,10 @@
         <v>2.19</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q14" t="n">
         <v>12.0</v>
@@ -4007,16 +4070,16 @@
         <v>31.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AG14" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH14" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI14" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ14" t="n">
         <v>11.0</v>
@@ -4025,10 +4088,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AM14" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -4132,16 +4195,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" t="s">
         <v>165</v>
-      </c>
-      <c r="E15" t="s">
-        <v>156</v>
       </c>
       <c r="F15" t="n">
         <v>3.0</v>
@@ -4150,7 +4213,7 @@
         <v>3.0</v>
       </c>
       <c r="H15" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -4159,7 +4222,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L15" t="n">
         <v>1.66</v>
@@ -4171,10 +4234,10 @@
         <v>5.09</v>
       </c>
       <c r="O15" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q15" t="n">
         <v>28.0</v>
@@ -4222,16 +4285,16 @@
         <v>18.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AG15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.0</v>
@@ -4240,10 +4303,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AM15" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AN15" t="n">
         <v>3.8</v>
@@ -4347,16 +4410,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -4365,7 +4428,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4374,7 +4437,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
         <v>4.05</v>
@@ -4386,10 +4449,10 @@
         <v>1.83</v>
       </c>
       <c r="O16" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q16" t="n">
         <v>5.0</v>
@@ -4437,16 +4500,16 @@
         <v>27.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AG16" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH16" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI16" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.0</v>
@@ -4455,10 +4518,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AM16" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="AN16" t="n">
         <v>0.3</v>
@@ -4562,16 +4625,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F17" t="n">
         <v>2.0</v>
@@ -4580,7 +4643,7 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I17" t="n">
         <v>2.0</v>
@@ -4589,7 +4652,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L17" t="n">
         <v>1.8</v>
@@ -4601,10 +4664,10 @@
         <v>4.1</v>
       </c>
       <c r="O17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q17" t="n">
         <v>27.0</v>
@@ -4652,16 +4715,16 @@
         <v>15.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH17" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI17" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ17" t="n">
         <v>4.0</v>
@@ -4670,10 +4733,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AM17" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="AN17" t="n">
         <v>2.2</v>
@@ -4777,16 +4840,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F18" t="n">
         <v>4.0</v>
@@ -4795,7 +4858,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I18" t="n">
         <v>2.0</v>
@@ -4804,7 +4867,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L18" t="n">
         <v>2.42</v>
@@ -4816,10 +4879,10 @@
         <v>3.02</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -4867,16 +4930,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH18" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI18" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ18" t="n">
         <v>3.0</v>
@@ -4885,10 +4948,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AM18" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="AN18" t="n">
         <v>3.1</v>
@@ -4992,16 +5055,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -5010,7 +5073,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -5019,7 +5082,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -5031,10 +5094,10 @@
         <v>11.45</v>
       </c>
       <c r="O19" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q19" t="n">
         <v>11.0</v>
@@ -5082,16 +5145,16 @@
         <v>25.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH19" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI19" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ19" t="n">
         <v>1.0</v>
@@ -5100,10 +5163,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AM19" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="AN19" t="n">
         <v>1.5</v>
@@ -5207,16 +5270,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5225,7 +5288,7 @@
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -5234,7 +5297,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L20" t="n">
         <v>1.39</v>
@@ -5246,10 +5309,10 @@
         <v>7.83</v>
       </c>
       <c r="O20" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q20" t="n">
         <v>13.0</v>
@@ -5297,16 +5360,16 @@
         <v>31.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH20" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI20" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ20" t="n">
         <v>4.0</v>
@@ -5315,10 +5378,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AM20" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="AN20" t="n">
         <v>2.6</v>
@@ -5422,16 +5485,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F21" t="n">
         <v>2.0</v>
@@ -5440,7 +5503,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5449,7 +5512,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L21" t="n">
         <v>1.69</v>
@@ -5461,10 +5524,10 @@
         <v>4.9</v>
       </c>
       <c r="O21" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q21" t="n">
         <v>27.0</v>
@@ -5512,16 +5575,16 @@
         <v>21.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH21" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI21" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ21" t="n">
         <v>3.0</v>
@@ -5530,10 +5593,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AM21" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="AN21" t="n">
         <v>3.7</v>
@@ -5637,16 +5700,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5655,7 +5718,7 @@
         <v>4.0</v>
       </c>
       <c r="H22" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5664,7 +5727,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L22" t="n">
         <v>5.95</v>
@@ -5676,10 +5739,10 @@
         <v>1.49</v>
       </c>
       <c r="O22" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -5727,16 +5790,16 @@
         <v>19.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH22" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI22" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5745,10 +5808,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AM22" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="AN22" t="n">
         <v>0.9</v>
@@ -5852,16 +5915,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -5870,7 +5933,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -5879,7 +5942,7 @@
         <v>1.0</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L23" t="n">
         <v>2.84</v>
@@ -5891,10 +5954,10 @@
         <v>2.31</v>
       </c>
       <c r="O23" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
@@ -5942,16 +6005,16 @@
         <v>26.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ23" t="n">
         <v>4.0</v>
@@ -5960,10 +6023,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AM23" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="AN23" t="n">
         <v>1.6</v>
@@ -6067,16 +6130,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -6085,7 +6148,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6094,7 +6157,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L24" t="n">
         <v>1.48</v>
@@ -6106,10 +6169,10 @@
         <v>6.64</v>
       </c>
       <c r="O24" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q24" t="n">
         <v>16.0</v>
@@ -6157,16 +6220,16 @@
         <v>28.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -6175,10 +6238,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AM24" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="AN24" t="n">
         <v>1.3</v>
@@ -6282,16 +6345,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6300,7 +6363,7 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6309,7 +6372,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L25" t="n">
         <v>2.72</v>
@@ -6321,10 +6384,10 @@
         <v>2.63</v>
       </c>
       <c r="O25" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q25" t="n">
         <v>17.0</v>
@@ -6372,16 +6435,16 @@
         <v>25.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH25" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI25" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ25" t="n">
         <v>3.0</v>
@@ -6390,10 +6453,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AM25" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="AN25" t="n">
         <v>1.5</v>
@@ -6497,16 +6560,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -6515,7 +6578,7 @@
         <v>6.0</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -6524,7 +6587,7 @@
         <v>4.0</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L26" t="n">
         <v>11.8</v>
@@ -6536,10 +6599,10 @@
         <v>1.21</v>
       </c>
       <c r="O26" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q26" t="n">
         <v>5.0</v>
@@ -6587,16 +6650,16 @@
         <v>23.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH26" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI26" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.0</v>
@@ -6605,10 +6668,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AM26" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AN26" t="n">
         <v>0.3</v>
@@ -6712,16 +6775,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -6730,7 +6793,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -6739,7 +6802,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L27" t="n">
         <v>2.09</v>
@@ -6751,10 +6814,10 @@
         <v>3.52</v>
       </c>
       <c r="O27" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q27" t="n">
         <v>18.0</v>
@@ -6802,16 +6865,16 @@
         <v>22.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AG27" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH27" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI27" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ27" t="n">
         <v>7.0</v>
@@ -6820,10 +6883,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AN27" t="n">
         <v>2.7</v>
@@ -6927,16 +6990,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6945,7 +7008,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -6954,7 +7017,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
         <v>2.04</v>
@@ -6966,10 +7029,10 @@
         <v>3.61</v>
       </c>
       <c r="O28" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q28" t="n">
         <v>11.0</v>
@@ -7017,16 +7080,16 @@
         <v>19.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI28" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ28" t="n">
         <v>4.0</v>
@@ -7035,10 +7098,10 @@
         <v>1.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AN28" t="n">
         <v>1.1</v>
@@ -7142,16 +7205,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F29" t="n">
         <v>2.0</v>
@@ -7160,7 +7223,7 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -7169,7 +7232,7 @@
         <v>2.0</v>
       </c>
       <c r="K29" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L29" t="n">
         <v>2.42</v>
@@ -7181,10 +7244,10 @@
         <v>2.97</v>
       </c>
       <c r="O29" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q29" t="n">
         <v>30.0</v>
@@ -7232,16 +7295,16 @@
         <v>19.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH29" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI29" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.0</v>
@@ -7250,10 +7313,10 @@
         <v>2.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AN29" t="n">
         <v>2.4</v>
@@ -7357,16 +7420,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7375,7 +7438,7 @@
         <v>2.0</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I30" t="n">
         <v>2.0</v>
@@ -7384,7 +7447,7 @@
         <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L30" t="n">
         <v>1.99</v>
@@ -7396,10 +7459,10 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -7447,16 +7510,16 @@
         <v>29.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH30" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI30" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -7465,10 +7528,10 @@
         <v>0.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="AN30" t="n">
         <v>0.8</v>
@@ -7572,16 +7635,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7590,7 +7653,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7599,7 +7662,7 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L31" t="n">
         <v>2.75</v>
@@ -7611,10 +7674,10 @@
         <v>2.66</v>
       </c>
       <c r="O31" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q31" t="n">
         <v>7.0</v>
@@ -7662,16 +7725,16 @@
         <v>13.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH31" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI31" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ31" t="n">
         <v>2.0</v>
@@ -7680,10 +7743,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AN31" t="n">
         <v>0.7</v>
@@ -7787,16 +7850,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F32" t="n">
         <v>2.0</v>
@@ -7805,7 +7868,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I32" t="n">
         <v>2.0</v>
@@ -7814,7 +7877,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L32" t="n">
         <v>2.04</v>
@@ -7826,10 +7889,10 @@
         <v>3.65</v>
       </c>
       <c r="O32" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q32" t="n">
         <v>12.0</v>
@@ -7877,16 +7940,16 @@
         <v>35.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AG32" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH32" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI32" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ32" t="n">
         <v>6.0</v>
@@ -7895,10 +7958,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AM32" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="AN32" t="n">
         <v>1.2</v>
@@ -8002,16 +8065,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -8020,7 +8083,7 @@
         <v>5.0</v>
       </c>
       <c r="H33" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -8029,7 +8092,7 @@
         <v>2.0</v>
       </c>
       <c r="K33" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L33" t="n">
         <v>7.92</v>
@@ -8041,10 +8104,10 @@
         <v>1.36</v>
       </c>
       <c r="O33" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -8092,16 +8155,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AG33" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH33" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI33" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -8110,10 +8173,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AN33" t="n">
         <v>0.0</v>
@@ -8217,16 +8280,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F34" t="n">
         <v>2.0</v>
@@ -8235,7 +8298,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -8244,7 +8307,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L34" t="n">
         <v>1.79</v>
@@ -8256,10 +8319,10 @@
         <v>4.26</v>
       </c>
       <c r="O34" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q34" t="n">
         <v>14.0</v>
@@ -8307,16 +8370,16 @@
         <v>22.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH34" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI34" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ34" t="n">
         <v>2.0</v>
@@ -8325,10 +8388,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AN34" t="n">
         <v>2.7</v>
@@ -8432,16 +8495,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F35" t="n">
         <v>4.0</v>
@@ -8450,7 +8513,7 @@
         <v>3.0</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I35" t="n">
         <v>2.0</v>
@@ -8459,7 +8522,7 @@
         <v>3.0</v>
       </c>
       <c r="K35" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L35" t="n">
         <v>1.31</v>
@@ -8471,10 +8534,10 @@
         <v>9.23</v>
       </c>
       <c r="O35" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q35" t="n">
         <v>20.0</v>
@@ -8522,16 +8585,16 @@
         <v>20.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AG35" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH35" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI35" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.0</v>
@@ -8540,10 +8603,10 @@
         <v>1.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AN35" t="n">
         <v>1.9</v>
@@ -8647,16 +8710,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F36" t="n">
         <v>5.0</v>
@@ -8665,7 +8728,7 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I36" t="n">
         <v>2.0</v>
@@ -8674,7 +8737,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L36" t="n">
         <v>2.32</v>
@@ -8686,10 +8749,10 @@
         <v>2.94</v>
       </c>
       <c r="O36" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q36" t="n">
         <v>16.0</v>
@@ -8737,16 +8800,16 @@
         <v>16.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AG36" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH36" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI36" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ36" t="n">
         <v>4.0</v>
@@ -8755,10 +8818,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="n">
         <v>3.4</v>
@@ -8862,16 +8925,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -8880,7 +8943,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -8889,7 +8952,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L37" t="n">
         <v>5.19</v>
@@ -8901,10 +8964,10 @@
         <v>1.64</v>
       </c>
       <c r="O37" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q37" t="n">
         <v>15.0</v>
@@ -8952,16 +9015,16 @@
         <v>15.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG37" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH37" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI37" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ37" t="n">
         <v>3.0</v>
@@ -8970,10 +9033,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="n">
         <v>1.4</v>
@@ -9077,16 +9140,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -9095,7 +9158,7 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -9104,7 +9167,7 @@
         <v>2.0</v>
       </c>
       <c r="K38" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L38" t="n">
         <v>1.24</v>
@@ -9116,10 +9179,10 @@
         <v>11.22</v>
       </c>
       <c r="O38" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q38" t="n">
         <v>23.0</v>
@@ -9167,16 +9230,16 @@
         <v>21.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG38" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH38" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI38" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ38" t="n">
         <v>2.0</v>
@@ -9185,10 +9248,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AM38" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="AN38" t="n">
         <v>3.2</v>
@@ -9292,16 +9355,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -9310,7 +9373,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -9319,7 +9382,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L39" t="n">
         <v>1.62</v>
@@ -9331,10 +9394,10 @@
         <v>5.59</v>
       </c>
       <c r="O39" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q39" t="n">
         <v>6.0</v>
@@ -9382,16 +9445,16 @@
         <v>25.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG39" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH39" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI39" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ39" t="n">
         <v>6.0</v>
@@ -9400,10 +9463,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AM39" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="n">
         <v>1.2</v>
@@ -9507,16 +9570,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -9525,7 +9588,7 @@
         <v>2.0</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -9534,7 +9597,7 @@
         <v>1.0</v>
       </c>
       <c r="K40" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L40" t="n">
         <v>1.86</v>
@@ -9546,10 +9609,10 @@
         <v>4.21</v>
       </c>
       <c r="O40" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q40" t="n">
         <v>7.0</v>
@@ -9597,16 +9660,16 @@
         <v>20.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG40" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH40" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI40" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ40" t="n">
         <v>8.0</v>
@@ -9615,10 +9678,10 @@
         <v>2.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AM40" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AN40" t="n">
         <v>0.6</v>
@@ -9722,16 +9785,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -9740,7 +9803,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -9749,7 +9812,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L41" t="n">
         <v>2.13</v>
@@ -9761,10 +9824,10 @@
         <v>3.54</v>
       </c>
       <c r="O41" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -9812,16 +9875,16 @@
         <v>22.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG41" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH41" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI41" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ41" t="n">
         <v>4.0</v>
@@ -9830,10 +9893,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AM41" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="n">
         <v>0.9</v>
@@ -9937,16 +10000,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F42" t="n">
         <v>4.0</v>
@@ -9955,7 +10018,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I42" t="n">
         <v>2.0</v>
@@ -9964,7 +10027,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L42" t="n">
         <v>1.4</v>
@@ -9976,10 +10039,10 @@
         <v>7.14</v>
       </c>
       <c r="O42" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -10027,16 +10090,16 @@
         <v>22.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG42" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH42" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI42" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ42" t="n">
         <v>3.0</v>
@@ -10045,10 +10108,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="AN42" t="n">
         <v>3.0</v>
@@ -10152,16 +10215,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -10170,7 +10233,7 @@
         <v>2.0</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -10179,7 +10242,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L43" t="n">
         <v>3.35</v>
@@ -10191,10 +10254,10 @@
         <v>2.09</v>
       </c>
       <c r="O43" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q43" t="n">
         <v>5.0</v>
@@ -10242,16 +10305,16 @@
         <v>30.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AG43" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH43" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI43" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ43" t="n">
         <v>7.0</v>
@@ -10260,10 +10323,10 @@
         <v>1.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AM43" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="n">
         <v>1.1</v>
@@ -10367,16 +10430,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F44" t="n">
         <v>1.0</v>
@@ -10385,7 +10448,7 @@
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -10394,7 +10457,7 @@
         <v>1.0</v>
       </c>
       <c r="K44" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L44" t="n">
         <v>1.74</v>
@@ -10406,10 +10469,10 @@
         <v>4.36</v>
       </c>
       <c r="O44" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q44" t="n">
         <v>18.0</v>
@@ -10457,16 +10520,16 @@
         <v>26.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AG44" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH44" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI44" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ44" t="n">
         <v>4.0</v>
@@ -10475,10 +10538,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AM44" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AN44" t="n">
         <v>1.4</v>
@@ -10582,16 +10645,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F45" t="n">
         <v>2.0</v>
@@ -10600,7 +10663,7 @@
         <v>4.0</v>
       </c>
       <c r="H45" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -10609,7 +10672,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L45" t="n">
         <v>4.5</v>
@@ -10621,10 +10684,10 @@
         <v>1.73</v>
       </c>
       <c r="O45" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q45" t="n">
         <v>10.0</v>
@@ -10672,16 +10735,16 @@
         <v>25.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AG45" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH45" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI45" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ45" t="n">
         <v>4.0</v>
@@ -10690,10 +10753,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AM45" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AN45" t="n">
         <v>1.1</v>
@@ -10797,16 +10860,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F46" t="n">
         <v>3.0</v>
@@ -10815,7 +10878,7 @@
         <v>4.0</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I46" t="n">
         <v>3.0</v>
@@ -10824,7 +10887,7 @@
         <v>3.0</v>
       </c>
       <c r="K46" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L46" t="n">
         <v>2.4</v>
@@ -10836,10 +10899,10 @@
         <v>2.84</v>
       </c>
       <c r="O46" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q46" t="n">
         <v>10.0</v>
@@ -10887,16 +10950,16 @@
         <v>31.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH46" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI46" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ46" t="n">
         <v>6.0</v>
@@ -10905,10 +10968,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AM46" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="n">
         <v>1.2</v>
@@ -11012,16 +11075,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45569.0</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F47" t="n">
         <v>2.0</v>
@@ -11030,7 +11093,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -11039,7 +11102,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L47" t="n">
         <v>2.46</v>
@@ -11051,10 +11114,10 @@
         <v>2.81</v>
       </c>
       <c r="O47" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q47" t="n">
         <v>13.0</v>
@@ -11102,16 +11165,16 @@
         <v>28.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH47" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI47" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ47" t="n">
         <v>6.0</v>
@@ -11120,10 +11183,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AM47" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="AN47" t="n">
         <v>1.3</v>
@@ -11227,16 +11290,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F48" t="n">
         <v>1.0</v>
@@ -11245,7 +11308,7 @@
         <v>3.0</v>
       </c>
       <c r="H48" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -11254,7 +11317,7 @@
         <v>2.0</v>
       </c>
       <c r="K48" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L48" t="n">
         <v>3.07</v>
@@ -11266,10 +11329,10 @@
         <v>2.25</v>
       </c>
       <c r="O48" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q48" t="n">
         <v>17.0</v>
@@ -11317,16 +11380,16 @@
         <v>23.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG48" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH48" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI48" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ48" t="n">
         <v>3.0</v>
@@ -11335,10 +11398,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="AM48" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AN48" t="n">
         <v>1.7</v>
@@ -11442,16 +11505,16 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -11460,7 +11523,7 @@
         <v>2.0</v>
       </c>
       <c r="H49" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I49" t="n">
         <v>2.0</v>
@@ -11469,7 +11532,7 @@
         <v>1.0</v>
       </c>
       <c r="K49" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L49" t="n">
         <v>1.08</v>
@@ -11481,10 +11544,10 @@
         <v>25.93</v>
       </c>
       <c r="O49" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q49" t="n">
         <v>24.0</v>
@@ -11532,16 +11595,16 @@
         <v>14.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH49" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI49" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ49" t="n">
         <v>4.0</v>
@@ -11550,10 +11613,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AM49" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="AN49" t="n">
         <v>2.1</v>
@@ -11657,16 +11720,16 @@
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F50" t="n">
         <v>2.0</v>
@@ -11675,7 +11738,7 @@
         <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I50" t="n">
         <v>2.0</v>
@@ -11684,7 +11747,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L50" t="n">
         <v>3.43</v>
@@ -11696,10 +11759,10 @@
         <v>2.18</v>
       </c>
       <c r="O50" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q50" t="n">
         <v>13.0</v>
@@ -11747,16 +11810,16 @@
         <v>32.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG50" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH50" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI50" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ50" t="n">
         <v>8.0</v>
@@ -11765,10 +11828,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AM50" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AN50" t="n">
         <v>1.5</v>
@@ -11872,16 +11935,16 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -11890,7 +11953,7 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -11899,7 +11962,7 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L51" t="n">
         <v>2.67</v>
@@ -11911,10 +11974,10 @@
         <v>2.62</v>
       </c>
       <c r="O51" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q51" t="n">
         <v>11.0</v>
@@ -11962,16 +12025,16 @@
         <v>16.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AG51" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH51" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI51" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ51" t="n">
         <v>3.0</v>
@@ -11980,10 +12043,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AM51" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AN51" t="n">
         <v>1.0</v>
@@ -12087,16 +12150,16 @@
         <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45570.0</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -12105,7 +12168,7 @@
         <v>3.0</v>
       </c>
       <c r="H52" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -12114,7 +12177,7 @@
         <v>2.0</v>
       </c>
       <c r="K52" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L52" t="n">
         <v>2.46</v>
@@ -12126,10 +12189,10 @@
         <v>2.99</v>
       </c>
       <c r="O52" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q52" t="n">
         <v>17.0</v>
@@ -12177,16 +12240,16 @@
         <v>28.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AG52" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH52" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI52" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ52" t="n">
         <v>3.0</v>
@@ -12195,10 +12258,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AM52" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="AN52" t="n">
         <v>1.0</v>
@@ -12302,16 +12365,16 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -12320,7 +12383,7 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -12329,7 +12392,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L53" t="n">
         <v>4.77</v>
@@ -12341,10 +12404,10 @@
         <v>1.7</v>
       </c>
       <c r="O53" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q53" t="n">
         <v>15.0</v>
@@ -12392,16 +12455,16 @@
         <v>25.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AG53" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH53" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI53" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ53" t="n">
         <v>4.0</v>
@@ -12410,10 +12473,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AM53" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AN53" t="n">
         <v>1.0</v>
@@ -12517,16 +12580,16 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -12535,7 +12598,7 @@
         <v>3.0</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I54" t="n">
         <v>2.0</v>
@@ -12544,7 +12607,7 @@
         <v>2.0</v>
       </c>
       <c r="K54" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L54" t="n">
         <v>5.72</v>
@@ -12556,10 +12619,10 @@
         <v>1.52</v>
       </c>
       <c r="O54" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q54" t="n">
         <v>5.0</v>
@@ -12607,16 +12670,16 @@
         <v>16.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AG54" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH54" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI54" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ54" t="n">
         <v>2.0</v>
@@ -12625,10 +12688,10 @@
         <v>0.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AM54" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AN54" t="n">
         <v>1.2</v>
@@ -12732,16 +12795,16 @@
         <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45571.0</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
@@ -12750,7 +12813,7 @@
         <v>1.0</v>
       </c>
       <c r="H55" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
@@ -12759,7 +12822,7 @@
         <v>1.0</v>
       </c>
       <c r="K55" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L55" t="n">
         <v>1.3</v>
@@ -12771,10 +12834,10 @@
         <v>8.25</v>
       </c>
       <c r="O55" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q55" t="n">
         <v>18.0</v>
@@ -12822,16 +12885,16 @@
         <v>17.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AG55" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH55" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI55" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ55" t="n">
         <v>5.0</v>
@@ -12840,10 +12903,10 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AM55" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="AN55" t="n">
         <v>1.9</v>
@@ -12947,16 +13010,16 @@
         <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>45583.0</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F56" t="n">
         <v>2.0</v>
@@ -12965,7 +13028,7 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I56" t="n">
         <v>1.0</v>
@@ -12974,7 +13037,7 @@
         <v>0.0</v>
       </c>
       <c r="K56" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L56" t="n">
         <v>1.31</v>
@@ -12986,10 +13049,10 @@
         <v>10.18</v>
       </c>
       <c r="O56" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q56" t="n">
         <v>20.0</v>
@@ -13037,16 +13100,16 @@
         <v>15.0</v>
       </c>
       <c r="AF56" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG56" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH56" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI56" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ56" t="n">
         <v>3.0</v>
@@ -13055,10 +13118,10 @@
         <v>0.0</v>
       </c>
       <c r="AL56" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AM56" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="AN56" t="n">
         <v>2.6</v>
@@ -13162,16 +13225,16 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F57" t="n">
         <v>3.0</v>
@@ -13180,7 +13243,7 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I57" t="n">
         <v>3.0</v>
@@ -13189,7 +13252,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L57" t="n">
         <v>1.74</v>
@@ -13201,10 +13264,10 @@
         <v>4.93</v>
       </c>
       <c r="O57" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q57" t="n">
         <v>15.0</v>
@@ -13252,16 +13315,16 @@
         <v>18.0</v>
       </c>
       <c r="AF57" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AG57" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH57" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI57" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ57" t="n">
         <v>2.0</v>
@@ -13270,10 +13333,10 @@
         <v>0.0</v>
       </c>
       <c r="AL57" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AM57" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AN57" t="n">
         <v>0.8</v>
@@ -13377,16 +13440,16 @@
         <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F58" t="n">
         <v>3.0</v>
@@ -13395,7 +13458,7 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I58" t="n">
         <v>1.0</v>
@@ -13404,7 +13467,7 @@
         <v>0.0</v>
       </c>
       <c r="K58" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L58" t="n">
         <v>1.7</v>
@@ -13416,10 +13479,10 @@
         <v>4.45</v>
       </c>
       <c r="O58" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q58" t="n">
         <v>12.0</v>
@@ -13467,16 +13530,16 @@
         <v>22.0</v>
       </c>
       <c r="AF58" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG58" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH58" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI58" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ58" t="n">
         <v>2.0</v>
@@ -13485,10 +13548,10 @@
         <v>0.0</v>
       </c>
       <c r="AL58" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AM58" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AN58" t="n">
         <v>2.5</v>
@@ -13592,16 +13655,16 @@
         <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F59" t="n">
         <v>2.0</v>
@@ -13610,7 +13673,7 @@
         <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I59" t="n">
         <v>1.0</v>
@@ -13619,7 +13682,7 @@
         <v>1.0</v>
       </c>
       <c r="K59" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L59" t="n">
         <v>1.45</v>
@@ -13631,10 +13694,10 @@
         <v>6.35</v>
       </c>
       <c r="O59" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q59" t="n">
         <v>27.0</v>
@@ -13682,16 +13745,16 @@
         <v>14.0</v>
       </c>
       <c r="AF59" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AG59" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH59" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI59" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ59" t="n">
         <v>3.0</v>
@@ -13700,10 +13763,10 @@
         <v>0.0</v>
       </c>
       <c r="AL59" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AM59" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="AN59" t="n">
         <v>3.8</v>
@@ -13807,16 +13870,16 @@
         <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -13825,7 +13888,7 @@
         <v>2.0</v>
       </c>
       <c r="H60" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -13834,7 +13897,7 @@
         <v>2.0</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L60" t="n">
         <v>4.27</v>
@@ -13846,10 +13909,10 @@
         <v>1.88</v>
       </c>
       <c r="O60" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q60" t="n">
         <v>16.0</v>
@@ -13897,16 +13960,16 @@
         <v>27.0</v>
       </c>
       <c r="AF60" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AG60" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH60" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI60" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ60" t="n">
         <v>4.0</v>
@@ -13915,10 +13978,10 @@
         <v>0.0</v>
       </c>
       <c r="AL60" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AM60" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="AN60" t="n">
         <v>0.6</v>
@@ -14022,16 +14085,16 @@
         <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F61" t="n">
         <v>3.0</v>
@@ -14040,7 +14103,7 @@
         <v>2.0</v>
       </c>
       <c r="H61" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I61" t="n">
         <v>1.0</v>
@@ -14049,7 +14112,7 @@
         <v>1.0</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L61" t="n">
         <v>1.83</v>
@@ -14061,10 +14124,10 @@
         <v>4.44</v>
       </c>
       <c r="O61" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q61" t="n">
         <v>20.0</v>
@@ -14112,16 +14175,16 @@
         <v>24.0</v>
       </c>
       <c r="AF61" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG61" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH61" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI61" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ61" t="n">
         <v>6.0</v>
@@ -14130,10 +14193,10 @@
         <v>0.0</v>
       </c>
       <c r="AL61" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AM61" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="AN61" t="n">
         <v>3.6</v>
@@ -14237,16 +14300,16 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C62" t="n" s="2">
         <v>45584.0</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F62" t="n">
         <v>4.0</v>
@@ -14255,7 +14318,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
@@ -14264,7 +14327,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L62" t="n">
         <v>1.36</v>
@@ -14276,10 +14339,10 @@
         <v>7.55</v>
       </c>
       <c r="O62" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q62" t="n">
         <v>22.0</v>
@@ -14327,16 +14390,16 @@
         <v>16.0</v>
       </c>
       <c r="AF62" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG62" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH62" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI62" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ62" t="n">
         <v>2.0</v>
@@ -14345,10 +14408,10 @@
         <v>0.0</v>
       </c>
       <c r="AL62" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AM62" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AN62" t="n">
         <v>3.2</v>
@@ -14452,16 +14515,16 @@
         <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C63" t="n" s="2">
         <v>45585.0</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -14470,7 +14533,7 @@
         <v>2.0</v>
       </c>
       <c r="H63" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
@@ -14479,7 +14542,7 @@
         <v>1.0</v>
       </c>
       <c r="K63" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L63" t="n">
         <v>3.48</v>
@@ -14491,10 +14554,10 @@
         <v>2.2</v>
       </c>
       <c r="O63" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q63" t="n">
         <v>12.0</v>
@@ -14542,16 +14605,16 @@
         <v>19.0</v>
       </c>
       <c r="AF63" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG63" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH63" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI63" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ63" t="n">
         <v>3.0</v>
@@ -14560,10 +14623,10 @@
         <v>0.0</v>
       </c>
       <c r="AL63" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AM63" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AN63" t="n">
         <v>1.3</v>
@@ -14667,16 +14730,16 @@
         <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C64" t="n" s="2">
         <v>45585.0</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F64" t="n">
         <v>2.0</v>
@@ -14685,7 +14748,7 @@
         <v>4.0</v>
       </c>
       <c r="H64" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I64" t="n">
         <v>1.0</v>
@@ -14694,7 +14757,7 @@
         <v>1.0</v>
       </c>
       <c r="K64" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L64" t="n">
         <v>2.09</v>
@@ -14706,10 +14769,10 @@
         <v>3.55</v>
       </c>
       <c r="O64" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q64" t="n">
         <v>14.0</v>
@@ -14757,16 +14820,16 @@
         <v>24.0</v>
       </c>
       <c r="AF64" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AG64" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH64" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI64" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ64" t="n">
         <v>2.0</v>
@@ -14775,10 +14838,10 @@
         <v>1.0</v>
       </c>
       <c r="AL64" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AM64" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="AN64" t="n">
         <v>1.8</v>
@@ -14882,16 +14945,16 @@
         <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C65" t="n" s="2">
         <v>45590.0</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F65" t="n">
         <v>1.0</v>
@@ -14900,7 +14963,7 @@
         <v>1.0</v>
       </c>
       <c r="H65" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
@@ -14909,7 +14972,7 @@
         <v>0.0</v>
       </c>
       <c r="K65" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L65" t="n">
         <v>2.39</v>
@@ -14921,10 +14984,10 @@
         <v>2.89</v>
       </c>
       <c r="O65" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q65" t="n">
         <v>23.0</v>
@@ -14972,16 +15035,16 @@
         <v>32.0</v>
       </c>
       <c r="AF65" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AG65" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH65" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI65" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ65" t="n">
         <v>5.0</v>
@@ -14990,10 +15053,10 @@
         <v>0.0</v>
       </c>
       <c r="AL65" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AM65" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="AN65" t="n">
         <v>1.7</v>
@@ -15097,16 +15160,16 @@
         <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C66" t="n" s="2">
         <v>45591.0</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F66" t="n">
         <v>2.0</v>
@@ -15115,7 +15178,7 @@
         <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I66" t="n">
         <v>1.0</v>
@@ -15124,7 +15187,7 @@
         <v>1.0</v>
       </c>
       <c r="K66" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L66" t="n">
         <v>3.83</v>
@@ -15136,10 +15199,10 @@
         <v>1.93</v>
       </c>
       <c r="O66" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q66" t="n">
         <v>12.0</v>
@@ -15187,16 +15250,16 @@
         <v>23.0</v>
       </c>
       <c r="AF66" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG66" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH66" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI66" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ66" t="n">
         <v>6.0</v>
@@ -15205,10 +15268,10 @@
         <v>1.0</v>
       </c>
       <c r="AL66" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AM66" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AN66" t="n">
         <v>0.6</v>
@@ -15312,16 +15375,16 @@
         <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C67" t="n" s="2">
         <v>45591.0</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F67" t="n">
         <v>3.0</v>
@@ -15330,7 +15393,7 @@
         <v>1.0</v>
       </c>
       <c r="H67" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
@@ -15339,7 +15402,7 @@
         <v>1.0</v>
       </c>
       <c r="K67" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L67" t="n">
         <v>1.75</v>
@@ -15351,10 +15414,10 @@
         <v>4.55</v>
       </c>
       <c r="O67" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q67" t="n">
         <v>12.0</v>
@@ -15402,16 +15465,16 @@
         <v>16.0</v>
       </c>
       <c r="AF67" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG67" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH67" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI67" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ67" t="n">
         <v>5.0</v>
@@ -15420,10 +15483,10 @@
         <v>0.0</v>
       </c>
       <c r="AL67" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AM67" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="AN67" t="n">
         <v>1.8</v>
@@ -15527,16 +15590,16 @@
         <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C68" t="n" s="2">
         <v>45591.0</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -15545,7 +15608,7 @@
         <v>0.0</v>
       </c>
       <c r="H68" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
@@ -15554,7 +15617,7 @@
         <v>0.0</v>
       </c>
       <c r="K68" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L68" t="n">
         <v>2.66</v>
@@ -15566,10 +15629,10 @@
         <v>2.71</v>
       </c>
       <c r="O68" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q68" t="n">
         <v>14.0</v>
@@ -15617,16 +15680,16 @@
         <v>21.0</v>
       </c>
       <c r="AF68" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG68" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH68" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI68" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ68" t="n">
         <v>3.0</v>
@@ -15635,10 +15698,10 @@
         <v>0.0</v>
       </c>
       <c r="AL68" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AM68" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AN68" t="n">
         <v>0.8</v>
@@ -15742,16 +15805,16 @@
         <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C69" t="n" s="2">
         <v>45591.0</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F69" t="n">
         <v>2.0</v>
@@ -15760,7 +15823,7 @@
         <v>1.0</v>
       </c>
       <c r="H69" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I69" t="n">
         <v>1.0</v>
@@ -15769,7 +15832,7 @@
         <v>0.0</v>
       </c>
       <c r="K69" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L69" t="n">
         <v>1.23</v>
@@ -15781,10 +15844,10 @@
         <v>11.08</v>
       </c>
       <c r="O69" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q69" t="n">
         <v>16.0</v>
@@ -15832,16 +15895,16 @@
         <v>23.0</v>
       </c>
       <c r="AF69" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG69" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH69" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI69" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ69" t="n">
         <v>9.0</v>
@@ -15850,10 +15913,10 @@
         <v>2.0</v>
       </c>
       <c r="AL69" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AM69" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="AN69" t="n">
         <v>1.6</v>
@@ -15957,16 +16020,16 @@
         <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C70" t="n" s="2">
         <v>45591.0</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F70" t="n">
         <v>2.0</v>
@@ -15975,7 +16038,7 @@
         <v>2.0</v>
       </c>
       <c r="H70" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
@@ -15984,7 +16047,7 @@
         <v>1.0</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L70" t="n">
         <v>5.84</v>
@@ -15996,10 +16059,10 @@
         <v>1.51</v>
       </c>
       <c r="O70" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q70" t="n">
         <v>13.0</v>
@@ -16047,16 +16110,16 @@
         <v>20.0</v>
       </c>
       <c r="AF70" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG70" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH70" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI70" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ70" t="n">
         <v>2.0</v>
@@ -16065,10 +16128,10 @@
         <v>0.0</v>
       </c>
       <c r="AL70" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AM70" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="AN70" t="n">
         <v>1.6</v>
@@ -16172,16 +16235,16 @@
         <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C71" t="n" s="2">
         <v>45592.0</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -16190,7 +16253,7 @@
         <v>5.0</v>
       </c>
       <c r="H71" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
@@ -16199,7 +16262,7 @@
         <v>2.0</v>
       </c>
       <c r="K71" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L71" t="n">
         <v>14.33</v>
@@ -16211,10 +16274,10 @@
         <v>1.15</v>
       </c>
       <c r="O71" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q71" t="n">
         <v>6.0</v>
@@ -16262,16 +16325,16 @@
         <v>21.0</v>
       </c>
       <c r="AF71" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AG71" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH71" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI71" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ71" t="n">
         <v>2.0</v>
@@ -16280,10 +16343,10 @@
         <v>0.0</v>
       </c>
       <c r="AL71" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AM71" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AN71" t="n">
         <v>0.6</v>
@@ -16387,16 +16450,16 @@
         <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C72" t="n" s="2">
         <v>45592.0</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F72" t="n">
         <v>1.0</v>
@@ -16405,7 +16468,7 @@
         <v>1.0</v>
       </c>
       <c r="H72" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
@@ -16414,7 +16477,7 @@
         <v>1.0</v>
       </c>
       <c r="K72" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L72" t="n">
         <v>2.63</v>
@@ -16426,10 +16489,10 @@
         <v>2.84</v>
       </c>
       <c r="O72" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q72" t="n">
         <v>13.0</v>
@@ -16477,16 +16540,16 @@
         <v>20.0</v>
       </c>
       <c r="AF72" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AG72" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH72" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI72" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ72" t="n">
         <v>8.0</v>
@@ -16495,10 +16558,10 @@
         <v>1.0</v>
       </c>
       <c r="AL72" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AM72" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="AN72" t="n">
         <v>1.4</v>
@@ -16602,16 +16665,16 @@
         <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C73" t="n" s="2">
         <v>45592.0</v>
       </c>
       <c r="D73" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -16620,7 +16683,7 @@
         <v>0.0</v>
       </c>
       <c r="H73" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
@@ -16629,7 +16692,7 @@
         <v>0.0</v>
       </c>
       <c r="K73" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L73" t="n">
         <v>2.32</v>
@@ -16641,10 +16704,10 @@
         <v>3.03</v>
       </c>
       <c r="O73" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q73" t="n">
         <v>17.0</v>
@@ -16692,16 +16755,16 @@
         <v>28.0</v>
       </c>
       <c r="AF73" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG73" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH73" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI73" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ73" t="n">
         <v>3.0</v>
@@ -16710,10 +16773,10 @@
         <v>0.0</v>
       </c>
       <c r="AL73" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AM73" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="AN73" t="n">
         <v>1.5</v>
@@ -16817,16 +16880,16 @@
         <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C74" t="n" s="2">
         <v>45597.0</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -16835,7 +16898,7 @@
         <v>0.0</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
@@ -16844,7 +16907,7 @@
         <v>0.0</v>
       </c>
       <c r="K74" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L74" t="n">
         <v>1.57</v>
@@ -16856,10 +16919,10 @@
         <v>5.29</v>
       </c>
       <c r="O74" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P74" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q74" t="n">
         <v>19.0</v>
@@ -16907,16 +16970,16 @@
         <v>27.0</v>
       </c>
       <c r="AF74" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="AG74" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH74" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI74" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ74" t="n">
         <v>7.0</v>
@@ -16925,10 +16988,10 @@
         <v>0.0</v>
       </c>
       <c r="AL74" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AM74" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="AN74" t="n">
         <v>2.2</v>
@@ -17032,16 +17095,16 @@
         <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C75" t="n" s="2">
         <v>45598.0</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F75" t="n">
         <v>3.0</v>
@@ -17050,7 +17113,7 @@
         <v>0.0</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I75" t="n">
         <v>2.0</v>
@@ -17059,7 +17122,7 @@
         <v>0.0</v>
       </c>
       <c r="K75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L75" t="n">
         <v>1.17</v>
@@ -17071,10 +17134,10 @@
         <v>15.58</v>
       </c>
       <c r="O75" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q75" t="n">
         <v>16.0</v>
@@ -17122,16 +17185,16 @@
         <v>11.0</v>
       </c>
       <c r="AF75" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG75" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH75" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI75" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ75" t="n">
         <v>2.0</v>
@@ -17140,10 +17203,10 @@
         <v>0.0</v>
       </c>
       <c r="AL75" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AM75" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="AN75" t="n">
         <v>2.5</v>
@@ -17247,16 +17310,16 @@
         <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C76" t="n" s="2">
         <v>45598.0</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F76" t="n">
         <v>7.0</v>
@@ -17265,7 +17328,7 @@
         <v>2.0</v>
       </c>
       <c r="H76" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I76" t="n">
         <v>4.0</v>
@@ -17274,7 +17337,7 @@
         <v>1.0</v>
       </c>
       <c r="K76" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L76" t="n">
         <v>1.34</v>
@@ -17286,10 +17349,10 @@
         <v>7.96</v>
       </c>
       <c r="O76" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q76" t="n">
         <v>18.0</v>
@@ -17337,16 +17400,16 @@
         <v>21.0</v>
       </c>
       <c r="AF76" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AG76" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH76" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI76" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ76" t="n">
         <v>3.0</v>
@@ -17355,10 +17418,10 @@
         <v>0.0</v>
       </c>
       <c r="AL76" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AM76" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="n">
         <v>3.5</v>
@@ -17462,16 +17525,16 @@
         <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C77" t="n" s="2">
         <v>45598.0</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -17480,7 +17543,7 @@
         <v>2.0</v>
       </c>
       <c r="H77" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
@@ -17489,7 +17552,7 @@
         <v>1.0</v>
       </c>
       <c r="K77" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L77" t="n">
         <v>1.88</v>
@@ -17501,10 +17564,10 @@
         <v>4.02</v>
       </c>
       <c r="O77" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P77" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q77" t="n">
         <v>12.0</v>
@@ -17552,16 +17615,16 @@
         <v>20.0</v>
       </c>
       <c r="AF77" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AG77" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH77" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI77" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ77" t="n">
         <v>2.0</v>
@@ -17570,10 +17633,10 @@
         <v>0.0</v>
       </c>
       <c r="AL77" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AM77" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AN77" t="n">
         <v>0.7</v>
@@ -17677,16 +17740,16 @@
         <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C78" t="n" s="2">
         <v>45598.0</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F78" t="n">
         <v>1.0</v>
@@ -17695,7 +17758,7 @@
         <v>0.0</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I78" t="n">
         <v>1.0</v>
@@ -17704,7 +17767,7 @@
         <v>0.0</v>
       </c>
       <c r="K78" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L78" t="n">
         <v>2.82</v>
@@ -17716,10 +17779,10 @@
         <v>2.54</v>
       </c>
       <c r="O78" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P78" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q78" t="n">
         <v>11.0</v>
@@ -17767,16 +17830,16 @@
         <v>30.0</v>
       </c>
       <c r="AF78" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AG78" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH78" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI78" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ78" t="n">
         <v>9.0</v>
@@ -17785,10 +17848,10 @@
         <v>0.0</v>
       </c>
       <c r="AL78" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AM78" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="AN78" t="n">
         <v>1.1</v>
@@ -17892,16 +17955,16 @@
         <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C79" t="n" s="2">
         <v>45598.0</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F79" t="n">
         <v>1.0</v>
@@ -17910,7 +17973,7 @@
         <v>1.0</v>
       </c>
       <c r="H79" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -17919,7 +17982,7 @@
         <v>1.0</v>
       </c>
       <c r="K79" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L79" t="n">
         <v>2.01</v>
@@ -17931,10 +17994,10 @@
         <v>3.59</v>
       </c>
       <c r="O79" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="P79" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q79" t="n">
         <v>18.0</v>
@@ -17982,16 +18045,16 @@
         <v>21.0</v>
       </c>
       <c r="AF79" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AG79" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH79" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI79" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ79" t="n">
         <v>4.0</v>
@@ -18000,10 +18063,10 @@
         <v>0.0</v>
       </c>
       <c r="AL79" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AM79" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="AN79" t="n">
         <v>1.2</v>
@@ -18107,16 +18170,16 @@
         <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C80" t="n" s="2">
         <v>45598.0</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F80" t="n">
         <v>2.0</v>
@@ -18125,7 +18188,7 @@
         <v>1.0</v>
       </c>
       <c r="H80" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I80" t="n">
         <v>1.0</v>
@@ -18134,7 +18197,7 @@
         <v>1.0</v>
       </c>
       <c r="K80" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L80" t="n">
         <v>2.25</v>
@@ -18146,10 +18209,10 @@
         <v>3.15</v>
       </c>
       <c r="O80" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P80" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q80" t="n">
         <v>19.0</v>
@@ -18197,16 +18260,16 @@
         <v>23.0</v>
       </c>
       <c r="AF80" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG80" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH80" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI80" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ80" t="n">
         <v>7.0</v>
@@ -18215,10 +18278,10 @@
         <v>0.0</v>
       </c>
       <c r="AL80" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AM80" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AN80" t="n">
         <v>2.0</v>
@@ -18322,16 +18385,16 @@
         <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C81" t="n" s="2">
         <v>45599.0</v>
       </c>
       <c r="D81" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -18340,7 +18403,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
@@ -18349,7 +18412,7 @@
         <v>0.0</v>
       </c>
       <c r="K81" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L81" t="n">
         <v>1.7</v>
@@ -18361,10 +18424,10 @@
         <v>5.21</v>
       </c>
       <c r="O81" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P81" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q81" t="n">
         <v>10.0</v>
@@ -18412,16 +18475,16 @@
         <v>21.0</v>
       </c>
       <c r="AF81" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AG81" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AH81" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AI81" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AJ81" t="n">
         <v>3.0</v>
@@ -18430,10 +18493,10 @@
         <v>0.0</v>
       </c>
       <c r="AL81" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AM81" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AN81" t="n">
         <v>0.8</v>
@@ -18537,16 +18600,16 @@
         <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C82" t="n" s="2">
         <v>45599.0</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F82" t="n">
         <v>4.0</v>
@@ -18555,7 +18618,7 @@
         <v>1.0</v>
       </c>
       <c r="H82" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I82" t="n">
         <v>3.0</v>
@@ -18564,7 +18627,7 @@
         <v>0.0</v>
       </c>
       <c r="K82" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L82" t="n">
         <v>2.14</v>
@@ -18576,10 +18639,10 @@
         <v>3.22</v>
       </c>
       <c r="O82" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q82" t="n">
         <v>16.0</v>
@@ -18627,16 +18690,16 @@
         <v>22.0</v>
       </c>
       <c r="AF82" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AG82" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AH82" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AI82" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AJ82" t="n">
         <v>5.0</v>
@@ -18645,10 +18708,10 @@
         <v>1.0</v>
       </c>
       <c r="AL82" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AM82" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AN82" t="n">
         <v>2.5</v>
@@ -18745,6 +18808,1941 @@
       </c>
       <c r="BS82" t="n">
         <v>157.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="n" s="2">
+        <v>45604.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>180</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>180</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O83" t="s">
+        <v>186</v>
+      </c>
+      <c r="P83" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>364</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ83" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="n" s="2">
+        <v>45605.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>180</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>179</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="M84" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O84" t="s">
+        <v>187</v>
+      </c>
+      <c r="P84" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>354</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BQ84" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="n" s="2">
+        <v>45605.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>165</v>
+      </c>
+      <c r="E85" t="s">
+        <v>167</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>181</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>181</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O85" t="s">
+        <v>183</v>
+      </c>
+      <c r="P85" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BQ85" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="n" s="2">
+        <v>45605.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" t="s">
+        <v>178</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>179</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>179</v>
+      </c>
+      <c r="L86" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="M86" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O86" t="s">
+        <v>187</v>
+      </c>
+      <c r="P86" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BQ86" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="n" s="2">
+        <v>45605.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>181</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>181</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="O87" t="s">
+        <v>188</v>
+      </c>
+      <c r="P87" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BQ87" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" t="n" s="2">
+        <v>45605.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>180</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>180</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O88" t="s">
+        <v>186</v>
+      </c>
+      <c r="P88" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>357</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BQ88" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="n" s="2">
+        <v>45606.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>180</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>180</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O89" t="s">
+        <v>186</v>
+      </c>
+      <c r="P89" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>73.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="n" s="2">
+        <v>45606.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>179</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>179</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O90" t="s">
+        <v>187</v>
+      </c>
+      <c r="P90" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BQ90" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>143.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="n" s="2">
+        <v>45606.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>179</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>179</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="O91" t="s">
+        <v>182</v>
+      </c>
+      <c r="P91" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BQ91" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>125.0</v>
       </c>
     </row>
   </sheetData>
